--- a/output/top5.xlsx
+++ b/output/top5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9832" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9832" uniqueCount="142">
   <si>
     <t>phenotype</t>
   </si>
@@ -364,13 +364,13 @@
     <t>Atopobium</t>
   </si>
   <si>
-    <t>Lactobacillus</t>
-  </si>
-  <si>
     <t>Escherichia coli</t>
   </si>
   <si>
     <t>Ureaplasma</t>
+  </si>
+  <si>
+    <t>Staphylococcus</t>
   </si>
   <si>
     <t>Bacteroides</t>
@@ -425,9 +425,6 @@
   </si>
   <si>
     <t>Veillonella</t>
-  </si>
-  <si>
-    <t>Staphylococcus</t>
   </si>
   <si>
     <t>Varibaculum</t>
@@ -996,10 +993,10 @@
         <v>98</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14">
-        <v>0.0712393288195466</v>
+        <v>0.0140880608940661</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1010,10 +1007,10 @@
         <v>98</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D15">
-        <v>0.0140880608940661</v>
+        <v>0.0010092939147987</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1027,7 +1024,7 @@
         <v>117</v>
       </c>
       <c r="D16">
-        <v>0.0010092939147987</v>
+        <v>0.0006308086967492</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1041,7 +1038,7 @@
         <v>118</v>
       </c>
       <c r="D17">
-        <v>0.0006308086967492</v>
+        <v>4.20539131166155E-05</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1234,7 +1231,7 @@
         <v>103</v>
       </c>
       <c r="C31" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D31">
         <v>0.0006308086967492</v>
@@ -1290,10 +1287,10 @@
         <v>104</v>
       </c>
       <c r="C35" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D35">
-        <v>4.20539131166155E-05</v>
+        <v>0.0422641826821985</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1304,10 +1301,10 @@
         <v>104</v>
       </c>
       <c r="C36" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4.20539131166155E-05</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -1528,10 +1525,10 @@
         <v>98</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D52">
-        <v>0.0003432887058015</v>
+        <v>9.808248737187977E-05</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -1542,10 +1539,10 @@
         <v>98</v>
       </c>
       <c r="C53" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="D53">
-        <v>9.808248737187977E-05</v>
+        <v>4.904124368593988E-05</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -1780,7 +1777,7 @@
         <v>103</v>
       </c>
       <c r="C70" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D70">
         <v>0</v>
@@ -1794,7 +1791,7 @@
         <v>104</v>
       </c>
       <c r="C71" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D71">
         <v>0</v>
@@ -1808,7 +1805,7 @@
         <v>104</v>
       </c>
       <c r="C72" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D72">
         <v>0</v>
@@ -1822,7 +1819,7 @@
         <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -1990,10 +1987,10 @@
         <v>98</v>
       </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D85">
-        <v>0.973213825786844</v>
+        <v>0.0050481636017101</v>
       </c>
     </row>
     <row r="86" spans="1:4">
@@ -2004,10 +2001,10 @@
         <v>98</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D86">
-        <v>0.0050481636017101</v>
+        <v>0.001596868078092</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -2018,10 +2015,10 @@
         <v>98</v>
       </c>
       <c r="C87" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D87">
-        <v>0.001596868078092</v>
+        <v>0.0006696543553289</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -2032,10 +2029,10 @@
         <v>98</v>
       </c>
       <c r="C88" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D88">
-        <v>0.0006696543553289</v>
+        <v>0.0006181424818421002</v>
       </c>
     </row>
     <row r="89" spans="1:4">
@@ -2046,10 +2043,10 @@
         <v>98</v>
       </c>
       <c r="C89" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D89">
-        <v>0.0006181424818421002</v>
+        <v>0.0005151187348683</v>
       </c>
     </row>
     <row r="90" spans="1:4">
@@ -2242,7 +2239,7 @@
         <v>103</v>
       </c>
       <c r="C103" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103">
         <v>0.001596868078092</v>
@@ -2329,7 +2326,7 @@
         <v>132</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>0.0005151187348683</v>
       </c>
     </row>
     <row r="110" spans="1:4">
@@ -2536,7 +2533,7 @@
         <v>98</v>
       </c>
       <c r="C124" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D124">
         <v>0.0181313848860023</v>
@@ -2550,7 +2547,7 @@
         <v>98</v>
       </c>
       <c r="C125" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D125">
         <v>0.0115012516067925</v>
@@ -2788,7 +2785,7 @@
         <v>103</v>
       </c>
       <c r="C142" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D142">
         <v>0</v>
@@ -2816,7 +2813,7 @@
         <v>104</v>
       </c>
       <c r="C144" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D144">
         <v>0</v>
@@ -2830,7 +2827,7 @@
         <v>104</v>
       </c>
       <c r="C145" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D145">
         <v>0</v>
@@ -2998,10 +2995,10 @@
         <v>98</v>
       </c>
       <c r="C157" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D157">
-        <v>0.9972832798221783</v>
+        <v>0.0001764104011572</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -3012,10 +3009,10 @@
         <v>98</v>
       </c>
       <c r="C158" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D158">
-        <v>0.0001764104011572</v>
+        <v>0.0001058462406943</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -3026,10 +3023,10 @@
         <v>98</v>
       </c>
       <c r="C159" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D159">
-        <v>0.0001058462406943</v>
+        <v>7.05641604629009E-05</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -3040,10 +3037,10 @@
         <v>98</v>
       </c>
       <c r="C160" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D160">
-        <v>7.05641604629009E-05</v>
+        <v>3.528208023145045E-05</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -3054,7 +3051,7 @@
         <v>98</v>
       </c>
       <c r="C161" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D161">
         <v>3.528208023145045E-05</v>
@@ -3292,7 +3289,7 @@
         <v>103</v>
       </c>
       <c r="C178" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -3320,10 +3317,10 @@
         <v>104</v>
       </c>
       <c r="C180" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D180">
-        <v>3.528208023145045E-05</v>
+        <v>7.05641604629009E-05</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3334,10 +3331,10 @@
         <v>104</v>
       </c>
       <c r="C181" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D181">
-        <v>0</v>
+        <v>3.528208023145045E-05</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3516,7 +3513,7 @@
         <v>98</v>
       </c>
       <c r="C194" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D194">
         <v>0.0009925558312653998</v>
@@ -3530,10 +3527,10 @@
         <v>98</v>
       </c>
       <c r="C195" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D195">
-        <v>0.0001488833746898</v>
+        <v>4.962779156327544E-05</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3544,7 +3541,7 @@
         <v>98</v>
       </c>
       <c r="C196" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D196">
         <v>4.962779156327544E-05</v>
@@ -3558,7 +3555,7 @@
         <v>98</v>
       </c>
       <c r="C197" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D197">
         <v>4.962779156327544E-05</v>
@@ -3796,7 +3793,7 @@
         <v>103</v>
       </c>
       <c r="C214" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D214">
         <v>0</v>
@@ -3813,7 +3810,7 @@
         <v>132</v>
       </c>
       <c r="D215">
-        <v>0</v>
+        <v>0.0781141439205955</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -4300,7 +4297,7 @@
         <v>103</v>
       </c>
       <c r="C250" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D250">
         <v>0</v>
@@ -4804,7 +4801,7 @@
         <v>103</v>
       </c>
       <c r="C286" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D286">
         <v>0</v>
@@ -4832,7 +4829,7 @@
         <v>104</v>
       </c>
       <c r="C288" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D288">
         <v>0</v>
@@ -4846,7 +4843,7 @@
         <v>104</v>
       </c>
       <c r="C289" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D289">
         <v>0</v>
@@ -5042,10 +5039,10 @@
         <v>98</v>
       </c>
       <c r="C303" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D303">
-        <v>0.0146236801987465</v>
+        <v>0.0118570379989836</v>
       </c>
     </row>
     <row r="304" spans="1:4">
@@ -5056,10 +5053,10 @@
         <v>98</v>
       </c>
       <c r="C304" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D304">
-        <v>0.0118570379989836</v>
+        <v>0.009316244142058601</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -5070,10 +5067,10 @@
         <v>98</v>
       </c>
       <c r="C305" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D305">
-        <v>0.009316244142058601</v>
+        <v>0.0010727796284794</v>
       </c>
     </row>
     <row r="306" spans="1:4">
@@ -5294,7 +5291,7 @@
         <v>103</v>
       </c>
       <c r="C321" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D321">
         <v>0.0010727796284794</v>
@@ -5339,7 +5336,7 @@
         <v>132</v>
       </c>
       <c r="D324">
-        <v>0</v>
+        <v>5.646208570944611E-05</v>
       </c>
     </row>
     <row r="325" spans="1:4">
@@ -5532,7 +5529,7 @@
         <v>98</v>
       </c>
       <c r="C338" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D338">
         <v>0.0006752608962553</v>
@@ -5574,7 +5571,7 @@
         <v>98</v>
       </c>
       <c r="C341" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D341">
         <v>0.00012277470841</v>
@@ -5812,7 +5809,7 @@
         <v>103</v>
       </c>
       <c r="C358" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D358">
         <v>0</v>
@@ -5826,10 +5823,10 @@
         <v>104</v>
       </c>
       <c r="C359" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D359">
-        <v>0.0003683241252302</v>
+        <v>0.08686310620012271</v>
       </c>
     </row>
     <row r="360" spans="1:4">
@@ -5840,10 +5837,10 @@
         <v>104</v>
       </c>
       <c r="C360" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D360">
-        <v>6.138735420503377E-05</v>
+        <v>0.0003683241252302</v>
       </c>
     </row>
     <row r="361" spans="1:4">
@@ -5854,10 +5851,10 @@
         <v>104</v>
       </c>
       <c r="C361" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D361">
-        <v>0</v>
+        <v>6.138735420503377E-05</v>
       </c>
     </row>
     <row r="362" spans="1:4">
@@ -6316,7 +6313,7 @@
         <v>103</v>
       </c>
       <c r="C394" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D394">
         <v>0</v>
@@ -6347,7 +6344,7 @@
         <v>132</v>
       </c>
       <c r="D396">
-        <v>0</v>
+        <v>5.799118533982834E-05</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -6526,10 +6523,10 @@
         <v>98</v>
       </c>
       <c r="C409" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D409">
-        <v>0.8119493002874241</v>
+        <v>0.0263393488196767</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -6540,10 +6537,10 @@
         <v>98</v>
       </c>
       <c r="C410" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D410">
-        <v>0.0263393488196767</v>
+        <v>0.0089525514771709</v>
       </c>
     </row>
     <row r="411" spans="1:4">
@@ -6554,10 +6551,10 @@
         <v>98</v>
       </c>
       <c r="C411" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="D411">
-        <v>0.0089525514771709</v>
+        <v>0.0010837299156575</v>
       </c>
     </row>
     <row r="412" spans="1:4">
@@ -6568,10 +6565,10 @@
         <v>98</v>
       </c>
       <c r="C412" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="D412">
-        <v>0.0010837299156575</v>
+        <v>0.0007067803797766</v>
       </c>
     </row>
     <row r="413" spans="1:4">
@@ -6582,10 +6579,10 @@
         <v>98</v>
       </c>
       <c r="C413" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="D413">
-        <v>0.0007067803797766</v>
+        <v>0.0006125429958064</v>
       </c>
     </row>
     <row r="414" spans="1:4">
@@ -6820,7 +6817,7 @@
         <v>103</v>
       </c>
       <c r="C430" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D430">
         <v>0</v>
@@ -6865,7 +6862,7 @@
         <v>132</v>
       </c>
       <c r="D433">
-        <v>0</v>
+        <v>0.0001413560759553</v>
       </c>
     </row>
     <row r="434" spans="1:4">
@@ -7072,7 +7069,7 @@
         <v>98</v>
       </c>
       <c r="C448" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D448">
         <v>0.0044554455445544</v>
@@ -7086,7 +7083,7 @@
         <v>98</v>
       </c>
       <c r="C449" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D449">
         <v>0.0008250825082507</v>
@@ -7324,7 +7321,7 @@
         <v>103</v>
       </c>
       <c r="C466" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D466">
         <v>0</v>
@@ -7338,10 +7335,10 @@
         <v>104</v>
       </c>
       <c r="C467" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D467">
-        <v>0.0168316831683168</v>
+        <v>0.0785478547854785</v>
       </c>
     </row>
     <row r="468" spans="1:4">
@@ -7352,10 +7349,10 @@
         <v>104</v>
       </c>
       <c r="C468" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D468">
-        <v>0.0124174917491749</v>
+        <v>0.0168316831683168</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -7366,10 +7363,10 @@
         <v>104</v>
       </c>
       <c r="C469" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D469">
-        <v>0</v>
+        <v>0.0124174917491749</v>
       </c>
     </row>
     <row r="470" spans="1:4">
@@ -7828,7 +7825,7 @@
         <v>103</v>
       </c>
       <c r="C502" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D502">
         <v>0</v>
@@ -8038,10 +8035,10 @@
         <v>98</v>
       </c>
       <c r="C517" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D517">
-        <v>0.9693940734188412</v>
+        <v>0.01061477222467933</v>
       </c>
     </row>
     <row r="518" spans="1:4">
@@ -8052,10 +8049,10 @@
         <v>98</v>
       </c>
       <c r="C518" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D518">
-        <v>0.01061477222467933</v>
+        <v>0.0041132242370632</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -8066,10 +8063,10 @@
         <v>98</v>
       </c>
       <c r="C519" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D519">
-        <v>0.0041132242370632</v>
+        <v>0.0018575851393188</v>
       </c>
     </row>
     <row r="520" spans="1:4">
@@ -8080,10 +8077,10 @@
         <v>98</v>
       </c>
       <c r="C520" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D520">
-        <v>0.0018575851393188</v>
+        <v>0.0007961079168509</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -8094,10 +8091,10 @@
         <v>98</v>
       </c>
       <c r="C521" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D521">
-        <v>0.0007961079168509</v>
+        <v>0.0002653693056169</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -8318,7 +8315,7 @@
         <v>103</v>
       </c>
       <c r="C537" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D537">
         <v>8.845643520566122E-05</v>
@@ -8360,7 +8357,7 @@
         <v>104</v>
       </c>
       <c r="C540" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D540">
         <v>0</v>
@@ -8374,7 +8371,7 @@
         <v>104</v>
       </c>
       <c r="C541" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D541">
         <v>0</v>
@@ -8542,10 +8539,10 @@
         <v>98</v>
       </c>
       <c r="C553" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D553">
-        <v>0.9904299247024532</v>
+        <v>0.0009230021860578</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -8556,10 +8553,10 @@
         <v>98</v>
       </c>
       <c r="C554" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D554">
-        <v>0.0009230021860578</v>
+        <v>0.0002914743745445</v>
       </c>
     </row>
     <row r="555" spans="1:4">
@@ -8570,10 +8567,10 @@
         <v>98</v>
       </c>
       <c r="C555" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D555">
-        <v>0.0002914743745445</v>
+        <v>0.0002428953121205048</v>
       </c>
     </row>
     <row r="556" spans="1:4">
@@ -8584,10 +8581,10 @@
         <v>98</v>
       </c>
       <c r="C556" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D556">
-        <v>0.0002428953121205048</v>
+        <v>0.0002428953121204</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -8598,10 +8595,10 @@
         <v>98</v>
       </c>
       <c r="C557" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D557">
-        <v>0.0002428953121204</v>
+        <v>0.0002428953121203952</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -8836,7 +8833,7 @@
         <v>103</v>
       </c>
       <c r="C574" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D574">
         <v>0</v>
@@ -9046,10 +9043,10 @@
         <v>98</v>
       </c>
       <c r="C589" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D589">
-        <v>0.6068823078716813</v>
+        <v>0.1098304407208767</v>
       </c>
     </row>
     <row r="590" spans="1:4">
@@ -9060,10 +9057,10 @@
         <v>98</v>
       </c>
       <c r="C590" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D590">
-        <v>0.1098304407208767</v>
+        <v>0.0559978680169226</v>
       </c>
     </row>
     <row r="591" spans="1:4">
@@ -9074,10 +9071,10 @@
         <v>98</v>
       </c>
       <c r="C591" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D591">
-        <v>0.0559978680169226</v>
+        <v>0.0204870248842399</v>
       </c>
     </row>
     <row r="592" spans="1:4">
@@ -9088,10 +9085,10 @@
         <v>98</v>
       </c>
       <c r="C592" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D592">
-        <v>0.0204870248842399</v>
+        <v>0.01785535827309361</v>
       </c>
     </row>
     <row r="593" spans="1:4">
@@ -9102,10 +9099,10 @@
         <v>98</v>
       </c>
       <c r="C593" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D593">
-        <v>0.01785535827309361</v>
+        <v>0.0150571304840267</v>
       </c>
     </row>
     <row r="594" spans="1:4">
@@ -9340,7 +9337,7 @@
         <v>103</v>
       </c>
       <c r="C610" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D610">
         <v>0.0024651054332256</v>
@@ -9385,7 +9382,7 @@
         <v>132</v>
       </c>
       <c r="D613">
-        <v>0</v>
+        <v>3.331223558413005E-05</v>
       </c>
     </row>
     <row r="614" spans="1:4">
@@ -9844,7 +9841,7 @@
         <v>103</v>
       </c>
       <c r="C646" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D646">
         <v>0</v>
@@ -10054,10 +10051,10 @@
         <v>98</v>
       </c>
       <c r="C661" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D661">
-        <v>0.9856583573026526</v>
+        <v>0.0011585170981144</v>
       </c>
     </row>
     <row r="662" spans="1:4">
@@ -10068,10 +10065,10 @@
         <v>98</v>
       </c>
       <c r="C662" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D662">
-        <v>0.0011585170981144</v>
+        <v>0.0003994886545221635</v>
       </c>
     </row>
     <row r="663" spans="1:4">
@@ -10082,10 +10079,10 @@
         <v>98</v>
       </c>
       <c r="C663" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D663">
-        <v>0.0003994886545221635</v>
+        <v>0.0001198465963566</v>
       </c>
     </row>
     <row r="664" spans="1:4">
@@ -10096,7 +10093,7 @@
         <v>98</v>
       </c>
       <c r="C664" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="D664">
         <v>0.0001198465963566</v>
@@ -10110,10 +10107,10 @@
         <v>98</v>
       </c>
       <c r="C665" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="D665">
-        <v>0.0001198465963566</v>
+        <v>7.989773090444231E-05</v>
       </c>
     </row>
     <row r="666" spans="1:4">
@@ -10348,7 +10345,7 @@
         <v>103</v>
       </c>
       <c r="C682" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D682">
         <v>0</v>
@@ -10376,7 +10373,7 @@
         <v>104</v>
       </c>
       <c r="C684" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D684">
         <v>0</v>
@@ -10390,7 +10387,7 @@
         <v>104</v>
       </c>
       <c r="C685" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D685">
         <v>0</v>
@@ -10614,7 +10611,7 @@
         <v>98</v>
       </c>
       <c r="C701" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D701">
         <v>0.0554603854389721</v>
@@ -10852,7 +10849,7 @@
         <v>103</v>
       </c>
       <c r="C718" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D718">
         <v>0</v>
@@ -11076,10 +11073,10 @@
         <v>98</v>
       </c>
       <c r="C734" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D734">
-        <v>0.1513674197384066</v>
+        <v>0.0717003567181926</v>
       </c>
     </row>
     <row r="735" spans="1:4">
@@ -11090,10 +11087,10 @@
         <v>98</v>
       </c>
       <c r="C735" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D735">
-        <v>0.0717003567181926</v>
+        <v>0.0030321046373365</v>
       </c>
     </row>
     <row r="736" spans="1:4">
@@ -11104,10 +11101,10 @@
         <v>98</v>
       </c>
       <c r="C736" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D736">
-        <v>0.0030321046373365</v>
+        <v>0.0022592152199762</v>
       </c>
     </row>
     <row r="737" spans="1:4">
@@ -11118,10 +11115,10 @@
         <v>98</v>
       </c>
       <c r="C737" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D737">
-        <v>0.0022592152199762</v>
+        <v>0.0017835909631391</v>
       </c>
     </row>
     <row r="738" spans="1:4">
@@ -11356,7 +11353,7 @@
         <v>103</v>
       </c>
       <c r="C754" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D754">
         <v>0</v>
@@ -11387,7 +11384,7 @@
         <v>132</v>
       </c>
       <c r="D756">
-        <v>0</v>
+        <v>0.0004161712247324</v>
       </c>
     </row>
     <row r="757" spans="1:4">
@@ -11566,7 +11563,7 @@
         <v>98</v>
       </c>
       <c r="C769" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D769">
         <v>0.220515000607312</v>
@@ -11608,7 +11605,7 @@
         <v>98</v>
       </c>
       <c r="C772" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D772">
         <v>0.0335236244382363</v>
@@ -11860,7 +11857,7 @@
         <v>103</v>
       </c>
       <c r="C790" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D790">
         <v>0</v>
@@ -12112,7 +12109,7 @@
         <v>98</v>
       </c>
       <c r="C808" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D808">
         <v>0.0204368087137162</v>
@@ -12364,7 +12361,7 @@
         <v>103</v>
       </c>
       <c r="C826" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D826">
         <v>0</v>
@@ -12574,10 +12571,10 @@
         <v>98</v>
       </c>
       <c r="C841" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D841">
-        <v>0.9921311808305412</v>
+        <v>0.0012691643821707</v>
       </c>
     </row>
     <row r="842" spans="1:4">
@@ -12588,10 +12585,10 @@
         <v>98</v>
       </c>
       <c r="C842" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D842">
-        <v>0.0012691643821707</v>
+        <v>0.0002538328764341</v>
       </c>
     </row>
     <row r="843" spans="1:4">
@@ -12602,10 +12599,10 @@
         <v>98</v>
       </c>
       <c r="C843" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D843">
-        <v>0.0002538328764341</v>
+        <v>0.0002030663011473</v>
       </c>
     </row>
     <row r="844" spans="1:4">
@@ -12616,10 +12613,10 @@
         <v>98</v>
       </c>
       <c r="C844" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D844">
-        <v>0.0002030663011473</v>
+        <v>0.0001522997258604311</v>
       </c>
     </row>
     <row r="845" spans="1:4">
@@ -12630,10 +12627,10 @@
         <v>98</v>
       </c>
       <c r="C845" t="s">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="D845">
-        <v>0.0001522997258604311</v>
+        <v>0.0001015331505736</v>
       </c>
     </row>
     <row r="846" spans="1:4">
@@ -12868,7 +12865,7 @@
         <v>103</v>
       </c>
       <c r="C862" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D862">
         <v>0</v>
@@ -12882,7 +12879,7 @@
         <v>104</v>
       </c>
       <c r="C863" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D863">
         <v>0</v>
@@ -12896,7 +12893,7 @@
         <v>104</v>
       </c>
       <c r="C864" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D864">
         <v>0</v>
@@ -12910,7 +12907,7 @@
         <v>104</v>
       </c>
       <c r="C865" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D865">
         <v>0</v>
@@ -13120,7 +13117,7 @@
         <v>98</v>
       </c>
       <c r="C880" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D880">
         <v>0.0147744387864878</v>
@@ -13372,7 +13369,7 @@
         <v>103</v>
       </c>
       <c r="C898" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D898">
         <v>0</v>
@@ -13400,7 +13397,7 @@
         <v>104</v>
       </c>
       <c r="C900" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D900">
         <v>0</v>
@@ -13414,7 +13411,7 @@
         <v>104</v>
       </c>
       <c r="C901" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D901">
         <v>0</v>
@@ -13582,10 +13579,10 @@
         <v>98</v>
       </c>
       <c r="C913" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D913">
-        <v>0.9970149253731344</v>
+        <v>0.000682302771855</v>
       </c>
     </row>
     <row r="914" spans="1:4">
@@ -13596,10 +13593,10 @@
         <v>98</v>
       </c>
       <c r="C914" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D914">
-        <v>0.000682302771855</v>
+        <v>0.0002558635394455763</v>
       </c>
     </row>
     <row r="915" spans="1:4">
@@ -13610,10 +13607,10 @@
         <v>98</v>
       </c>
       <c r="C915" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D915">
-        <v>0.0002558635394455763</v>
+        <v>0.0001279317697228</v>
       </c>
     </row>
     <row r="916" spans="1:4">
@@ -13624,10 +13621,10 @@
         <v>98</v>
       </c>
       <c r="C916" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D916">
-        <v>0.0001279317697228</v>
+        <v>8.528784648187633E-05</v>
       </c>
     </row>
     <row r="917" spans="1:4">
@@ -13638,7 +13635,7 @@
         <v>98</v>
       </c>
       <c r="C917" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D917">
         <v>8.528784648187633E-05</v>
@@ -13876,7 +13873,7 @@
         <v>103</v>
       </c>
       <c r="C934" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D934">
         <v>0</v>
@@ -13921,7 +13918,7 @@
         <v>132</v>
       </c>
       <c r="D937">
-        <v>0</v>
+        <v>4.264392324093817E-05</v>
       </c>
     </row>
     <row r="938" spans="1:4">
@@ -14145,7 +14142,7 @@
         <v>116</v>
       </c>
       <c r="D953">
-        <v>0.0006147226064238</v>
+        <v>0.0002049075354746086</v>
       </c>
     </row>
     <row r="954" spans="1:4">
@@ -14380,7 +14377,7 @@
         <v>103</v>
       </c>
       <c r="C970" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D970">
         <v>0</v>
@@ -14590,10 +14587,10 @@
         <v>98</v>
       </c>
       <c r="C985" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D985">
-        <v>0.5623561096390253</v>
+        <v>0.1824421180661135</v>
       </c>
     </row>
     <row r="986" spans="1:4">
@@ -14604,10 +14601,10 @@
         <v>98</v>
       </c>
       <c r="C986" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D986">
-        <v>0.1824421180661135</v>
+        <v>0.05286477563963335</v>
       </c>
     </row>
     <row r="987" spans="1:4">
@@ -14618,10 +14615,10 @@
         <v>98</v>
       </c>
       <c r="C987" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="D987">
-        <v>0.05286477563963335</v>
+        <v>0.0155944572346987</v>
       </c>
     </row>
     <row r="988" spans="1:4">
@@ -14632,10 +14629,10 @@
         <v>98</v>
       </c>
       <c r="C988" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D988">
-        <v>0.0155944572346987</v>
+        <v>0.0087311585074497</v>
       </c>
     </row>
     <row r="989" spans="1:4">
@@ -14646,10 +14643,10 @@
         <v>98</v>
       </c>
       <c r="C989" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D989">
-        <v>0.0087311585074497</v>
+        <v>0.0052995091438252</v>
       </c>
     </row>
     <row r="990" spans="1:4">
@@ -14856,7 +14853,7 @@
         <v>103</v>
       </c>
       <c r="C1004" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1004">
         <v>0.0087311585074497</v>
@@ -15122,7 +15119,7 @@
         <v>98</v>
       </c>
       <c r="C1023" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D1023">
         <v>0.0857571560480147</v>
@@ -15150,7 +15147,7 @@
         <v>98</v>
       </c>
       <c r="C1025" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D1025">
         <v>0.009118190212372999</v>
@@ -15388,7 +15385,7 @@
         <v>103</v>
       </c>
       <c r="C1042" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1042">
         <v>0</v>
@@ -15416,10 +15413,10 @@
         <v>104</v>
       </c>
       <c r="C1044" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1044">
-        <v>0.0018467220683287</v>
+        <v>0.0031163434903047</v>
       </c>
     </row>
     <row r="1045" spans="1:4">
@@ -15430,10 +15427,10 @@
         <v>104</v>
       </c>
       <c r="C1045" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1045">
-        <v>0</v>
+        <v>0.0018467220683287</v>
       </c>
     </row>
     <row r="1046" spans="1:4">
@@ -15892,7 +15889,7 @@
         <v>103</v>
       </c>
       <c r="C1078" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1078">
         <v>0</v>
@@ -16144,10 +16141,10 @@
         <v>98</v>
       </c>
       <c r="C1096" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D1096">
-        <v>0.0435579672948595</v>
+        <v>0.0401114614651316</v>
       </c>
     </row>
     <row r="1097" spans="1:4">
@@ -16158,10 +16155,10 @@
         <v>98</v>
       </c>
       <c r="C1097" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D1097">
-        <v>0.0401114614651316</v>
+        <v>0.0120994353596832</v>
       </c>
     </row>
     <row r="1098" spans="1:4">
@@ -16382,7 +16379,7 @@
         <v>103</v>
       </c>
       <c r="C1113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1113">
         <v>0.0084329397961428</v>
@@ -16427,7 +16424,7 @@
         <v>132</v>
       </c>
       <c r="D1116">
-        <v>0</v>
+        <v>0.0010266187577913</v>
       </c>
     </row>
     <row r="1117" spans="1:4">
@@ -16606,10 +16603,10 @@
         <v>98</v>
       </c>
       <c r="C1129" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1129">
-        <v>0.5747602290761057</v>
+        <v>0.2542606775684812</v>
       </c>
     </row>
     <row r="1130" spans="1:4">
@@ -16620,10 +16617,10 @@
         <v>98</v>
       </c>
       <c r="C1130" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D1130">
-        <v>0.2542606775684812</v>
+        <v>0.09200993583109079</v>
       </c>
     </row>
     <row r="1131" spans="1:4">
@@ -16634,10 +16631,10 @@
         <v>98</v>
       </c>
       <c r="C1131" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="D1131">
-        <v>0.09200993583109079</v>
+        <v>0.0060373973642448</v>
       </c>
     </row>
     <row r="1132" spans="1:4">
@@ -16651,7 +16648,7 @@
         <v>118</v>
       </c>
       <c r="D1132">
-        <v>0.0060373973642448</v>
+        <v>0.0041399296211964</v>
       </c>
     </row>
     <row r="1133" spans="1:4">
@@ -16662,10 +16659,10 @@
         <v>98</v>
       </c>
       <c r="C1133" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D1133">
-        <v>0.0041399296211964</v>
+        <v>0.0007589870972193</v>
       </c>
     </row>
     <row r="1134" spans="1:4">
@@ -16858,7 +16855,7 @@
         <v>103</v>
       </c>
       <c r="C1147" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1147">
         <v>0.0060373973642448</v>
@@ -16914,7 +16911,7 @@
         <v>104</v>
       </c>
       <c r="C1151" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1151">
         <v>0</v>
@@ -16928,7 +16925,7 @@
         <v>104</v>
       </c>
       <c r="C1152" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D1152">
         <v>0</v>
@@ -16942,7 +16939,7 @@
         <v>104</v>
       </c>
       <c r="C1153" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1153">
         <v>0</v>
@@ -17110,10 +17107,10 @@
         <v>98</v>
       </c>
       <c r="C1165" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1165">
-        <v>0.9958304073033708</v>
+        <v>0.0002633426966292</v>
       </c>
     </row>
     <row r="1166" spans="1:4">
@@ -17124,7 +17121,7 @@
         <v>98</v>
       </c>
       <c r="C1166" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D1166">
         <v>0.0002633426966292</v>
@@ -17138,10 +17135,10 @@
         <v>98</v>
       </c>
       <c r="C1167" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1167">
-        <v>0.0002633426966292</v>
+        <v>0.0001755617977528</v>
       </c>
     </row>
     <row r="1168" spans="1:4">
@@ -17152,10 +17149,10 @@
         <v>98</v>
       </c>
       <c r="C1168" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D1168">
-        <v>0.0001755617977528</v>
+        <v>0.0001316713483146</v>
       </c>
     </row>
     <row r="1169" spans="1:4">
@@ -17166,10 +17163,10 @@
         <v>98</v>
       </c>
       <c r="C1169" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D1169">
-        <v>0.0001316713483146</v>
+        <v>8.778089887640449E-05</v>
       </c>
     </row>
     <row r="1170" spans="1:4">
@@ -17376,7 +17373,7 @@
         <v>103</v>
       </c>
       <c r="C1184" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1184">
         <v>8.778089887640449E-05</v>
@@ -17432,7 +17429,7 @@
         <v>104</v>
       </c>
       <c r="C1188" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1188">
         <v>0</v>
@@ -17446,7 +17443,7 @@
         <v>104</v>
       </c>
       <c r="C1189" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1189">
         <v>0</v>
@@ -17908,7 +17905,7 @@
         <v>103</v>
       </c>
       <c r="C1222" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1222">
         <v>0</v>
@@ -18118,10 +18115,10 @@
         <v>98</v>
       </c>
       <c r="C1237" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1237">
-        <v>0.9950640279394644</v>
+        <v>0.0007450523864959</v>
       </c>
     </row>
     <row r="1238" spans="1:4">
@@ -18132,10 +18129,10 @@
         <v>98</v>
       </c>
       <c r="C1238" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D1238">
-        <v>0.0007450523864959</v>
+        <v>0.0003259604190919</v>
       </c>
     </row>
     <row r="1239" spans="1:4">
@@ -18146,10 +18143,10 @@
         <v>98</v>
       </c>
       <c r="C1239" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D1239">
-        <v>0.0003259604190919</v>
+        <v>0.0002793946449359</v>
       </c>
     </row>
     <row r="1240" spans="1:4">
@@ -18160,10 +18157,10 @@
         <v>98</v>
       </c>
       <c r="C1240" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D1240">
-        <v>0.0002793946449359</v>
+        <v>4.656577415599534E-05</v>
       </c>
     </row>
     <row r="1241" spans="1:4">
@@ -18174,7 +18171,7 @@
         <v>98</v>
       </c>
       <c r="C1241" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D1241">
         <v>4.656577415599534E-05</v>
@@ -18412,7 +18409,7 @@
         <v>103</v>
       </c>
       <c r="C1258" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1258">
         <v>0</v>
@@ -18440,7 +18437,7 @@
         <v>104</v>
       </c>
       <c r="C1260" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1260">
         <v>0</v>
@@ -18454,7 +18451,7 @@
         <v>104</v>
       </c>
       <c r="C1261" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1261">
         <v>0</v>
@@ -18622,10 +18619,10 @@
         <v>98</v>
       </c>
       <c r="C1273" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D1273">
-        <v>0.5233909970238095</v>
+        <v>0.3173828125</v>
       </c>
     </row>
     <row r="1274" spans="1:4">
@@ -18636,10 +18633,10 @@
         <v>98</v>
       </c>
       <c r="C1274" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D1274">
-        <v>0.3173828125</v>
+        <v>0.0501302083333333</v>
       </c>
     </row>
     <row r="1275" spans="1:4">
@@ -18650,10 +18647,10 @@
         <v>98</v>
       </c>
       <c r="C1275" t="s">
-        <v>114</v>
+        <v>135</v>
       </c>
       <c r="D1275">
-        <v>0.0501302083333333</v>
+        <v>0.0169735863095238</v>
       </c>
     </row>
     <row r="1276" spans="1:4">
@@ -18664,10 +18661,10 @@
         <v>98</v>
       </c>
       <c r="C1276" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D1276">
-        <v>0.0169735863095238</v>
+        <v>0.0109281994047619</v>
       </c>
     </row>
     <row r="1277" spans="1:4">
@@ -18678,10 +18675,10 @@
         <v>98</v>
       </c>
       <c r="C1277" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1277">
-        <v>0.0109281994047619</v>
+        <v>0.0026041666666666</v>
       </c>
     </row>
     <row r="1278" spans="1:4">
@@ -18916,7 +18913,7 @@
         <v>103</v>
       </c>
       <c r="C1294" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1294">
         <v>0</v>
@@ -19126,10 +19123,10 @@
         <v>98</v>
       </c>
       <c r="C1309" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1309">
-        <v>0.6582735876111271</v>
+        <v>0.06899913966160021</v>
       </c>
     </row>
     <row r="1310" spans="1:4">
@@ -19140,10 +19137,10 @@
         <v>98</v>
       </c>
       <c r="C1310" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D1310">
-        <v>0.06899913966160021</v>
+        <v>0.0541439632922282</v>
       </c>
     </row>
     <row r="1311" spans="1:4">
@@ -19154,10 +19151,10 @@
         <v>98</v>
       </c>
       <c r="C1311" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D1311">
-        <v>0.0541439632922282</v>
+        <v>0.0185833094350444</v>
       </c>
     </row>
     <row r="1312" spans="1:4">
@@ -19168,10 +19165,10 @@
         <v>98</v>
       </c>
       <c r="C1312" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D1312">
-        <v>0.0185833094350444</v>
+        <v>0.0173788356753656</v>
       </c>
     </row>
     <row r="1313" spans="1:4">
@@ -19182,10 +19179,10 @@
         <v>98</v>
       </c>
       <c r="C1313" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D1313">
-        <v>0.0173788356753656</v>
+        <v>0.0143389733295096</v>
       </c>
     </row>
     <row r="1314" spans="1:4">
@@ -19420,7 +19417,7 @@
         <v>103</v>
       </c>
       <c r="C1330" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1330">
         <v>0.0017780326928591</v>
@@ -19630,10 +19627,10 @@
         <v>98</v>
       </c>
       <c r="C1345" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D1345">
-        <v>0.9762908688739892</v>
+        <v>0.0033178959010161</v>
       </c>
     </row>
     <row r="1346" spans="1:4">
@@ -19644,10 +19641,10 @@
         <v>98</v>
       </c>
       <c r="C1346" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
       <c r="D1346">
-        <v>0.0033178959010161</v>
+        <v>0.0026957904195755</v>
       </c>
     </row>
     <row r="1347" spans="1:4">
@@ -19658,10 +19655,10 @@
         <v>98</v>
       </c>
       <c r="C1347" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="D1347">
-        <v>0.0026957904195755</v>
+        <v>0.0019354392755927</v>
       </c>
     </row>
     <row r="1348" spans="1:4">
@@ -19672,10 +19669,10 @@
         <v>98</v>
       </c>
       <c r="C1348" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D1348">
-        <v>0.0019354392755927</v>
+        <v>0.0011059653003386</v>
       </c>
     </row>
     <row r="1349" spans="1:4">
@@ -19686,10 +19683,10 @@
         <v>98</v>
       </c>
       <c r="C1349" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D1349">
-        <v>0.0011059653003386</v>
+        <v>0.000829473975254</v>
       </c>
     </row>
     <row r="1350" spans="1:4">
@@ -19868,7 +19865,7 @@
         <v>103</v>
       </c>
       <c r="C1362" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1362">
         <v>0.0026957904195755</v>
@@ -20148,10 +20145,10 @@
         <v>98</v>
       </c>
       <c r="C1382" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D1382">
-        <v>0.0111759875923729</v>
+        <v>0.0012772557248426</v>
       </c>
     </row>
     <row r="1383" spans="1:4">
@@ -20162,10 +20159,10 @@
         <v>98</v>
       </c>
       <c r="C1383" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D1383">
-        <v>0.0012772557248426</v>
+        <v>0.0012316394489553</v>
       </c>
     </row>
     <row r="1384" spans="1:4">
@@ -20176,10 +20173,10 @@
         <v>98</v>
       </c>
       <c r="C1384" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1384">
-        <v>0.0012316394489553</v>
+        <v>0.0007298604141957</v>
       </c>
     </row>
     <row r="1385" spans="1:4">
@@ -20190,10 +20187,10 @@
         <v>98</v>
       </c>
       <c r="C1385" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D1385">
-        <v>0.0007298604141957</v>
+        <v>0.0002736976553234</v>
       </c>
     </row>
     <row r="1386" spans="1:4">
@@ -20386,7 +20383,7 @@
         <v>103</v>
       </c>
       <c r="C1399" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1399">
         <v>0.0007298604141957</v>
@@ -20666,10 +20663,10 @@
         <v>98</v>
       </c>
       <c r="C1419" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D1419">
-        <v>0.0599627258731059</v>
+        <v>0.0054290576128352</v>
       </c>
     </row>
     <row r="1420" spans="1:4">
@@ -20680,10 +20677,10 @@
         <v>98</v>
       </c>
       <c r="C1420" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D1420">
-        <v>0.0054290576128352</v>
+        <v>0.0039705048213272</v>
       </c>
     </row>
     <row r="1421" spans="1:4">
@@ -20694,10 +20691,10 @@
         <v>98</v>
       </c>
       <c r="C1421" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D1421">
-        <v>0.0039705048213272</v>
+        <v>0.0014180374361883</v>
       </c>
     </row>
     <row r="1422" spans="1:4">
@@ -20932,7 +20929,7 @@
         <v>103</v>
       </c>
       <c r="C1438" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1438">
         <v>0</v>
@@ -21142,10 +21139,10 @@
         <v>98</v>
       </c>
       <c r="C1453" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1453">
-        <v>0.8673956624749408</v>
+        <v>0.0358301439766721</v>
       </c>
     </row>
     <row r="1454" spans="1:4">
@@ -21156,10 +21153,10 @@
         <v>98</v>
       </c>
       <c r="C1454" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D1454">
-        <v>0.0358301439766721</v>
+        <v>0.0056861673045379</v>
       </c>
     </row>
     <row r="1455" spans="1:4">
@@ -21170,10 +21167,10 @@
         <v>98</v>
       </c>
       <c r="C1455" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D1455">
-        <v>0.0056861673045379</v>
+        <v>0.0029159832330964</v>
       </c>
     </row>
     <row r="1456" spans="1:4">
@@ -21184,10 +21181,10 @@
         <v>98</v>
       </c>
       <c r="C1456" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D1456">
-        <v>0.0029159832330964</v>
+        <v>0.0019318388919263</v>
       </c>
     </row>
     <row r="1457" spans="1:4">
@@ -21198,10 +21195,10 @@
         <v>98</v>
       </c>
       <c r="C1457" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="D1457">
-        <v>0.0019318388919263</v>
+        <v>0.0017495899398578</v>
       </c>
     </row>
     <row r="1458" spans="1:4">
@@ -21408,7 +21405,7 @@
         <v>103</v>
       </c>
       <c r="C1472" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1472">
         <v>0.0017495899398578</v>
@@ -21481,7 +21478,7 @@
         <v>132</v>
       </c>
       <c r="D1477">
-        <v>0</v>
+        <v>3.644979041370512E-05</v>
       </c>
     </row>
     <row r="1478" spans="1:4">
@@ -21646,10 +21643,10 @@
         <v>98</v>
       </c>
       <c r="C1489" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1489">
-        <v>0.9966452742123688</v>
+        <v>0.0005834305717619</v>
       </c>
     </row>
     <row r="1490" spans="1:4">
@@ -21660,10 +21657,10 @@
         <v>98</v>
       </c>
       <c r="C1490" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1490">
-        <v>0.0005834305717619</v>
+        <v>0.0002917152858809</v>
       </c>
     </row>
     <row r="1491" spans="1:4">
@@ -21674,10 +21671,10 @@
         <v>98</v>
       </c>
       <c r="C1491" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D1491">
-        <v>0.0002917152858809</v>
+        <v>0.0001944768572539</v>
       </c>
     </row>
     <row r="1492" spans="1:4">
@@ -21688,10 +21685,10 @@
         <v>98</v>
       </c>
       <c r="C1492" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D1492">
-        <v>0.0001944768572539</v>
+        <v>9.723842862699337E-05</v>
       </c>
     </row>
     <row r="1493" spans="1:4">
@@ -21702,10 +21699,10 @@
         <v>98</v>
       </c>
       <c r="C1493" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D1493">
-        <v>9.723842862699337E-05</v>
+        <v>4.861921431349669E-05</v>
       </c>
     </row>
     <row r="1494" spans="1:4">
@@ -21940,7 +21937,7 @@
         <v>103</v>
       </c>
       <c r="C1510" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1510">
         <v>0</v>
@@ -21968,7 +21965,7 @@
         <v>104</v>
       </c>
       <c r="C1512" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1512">
         <v>0</v>
@@ -21982,7 +21979,7 @@
         <v>104</v>
       </c>
       <c r="C1513" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1513">
         <v>0</v>
@@ -22164,7 +22161,7 @@
         <v>98</v>
       </c>
       <c r="C1526" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D1526">
         <v>0.08180307268231379</v>
@@ -22178,7 +22175,7 @@
         <v>98</v>
       </c>
       <c r="C1527" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D1527">
         <v>0.0375775264502006</v>
@@ -22430,7 +22427,7 @@
         <v>103</v>
       </c>
       <c r="C1545" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1545">
         <v>0.0002837569419109</v>
@@ -22489,7 +22486,7 @@
         <v>132</v>
       </c>
       <c r="D1549">
-        <v>0</v>
+        <v>4.053670598727148E-05</v>
       </c>
     </row>
     <row r="1550" spans="1:4">
@@ -22710,7 +22707,7 @@
         <v>98</v>
       </c>
       <c r="C1565" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1565">
         <v>0.0045108613477143</v>
@@ -22948,7 +22945,7 @@
         <v>103</v>
       </c>
       <c r="C1582" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1582">
         <v>0.0001008013708986</v>
@@ -22993,7 +22990,7 @@
         <v>132</v>
       </c>
       <c r="D1585">
-        <v>0</v>
+        <v>2.520034272466105E-05</v>
       </c>
     </row>
     <row r="1586" spans="1:4">
@@ -23452,7 +23449,7 @@
         <v>103</v>
       </c>
       <c r="C1618" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1618">
         <v>0</v>
@@ -23480,7 +23477,7 @@
         <v>104</v>
       </c>
       <c r="C1620" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1620">
         <v>0</v>
@@ -23494,7 +23491,7 @@
         <v>104</v>
       </c>
       <c r="C1621" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1621">
         <v>0</v>
@@ -23690,7 +23687,7 @@
         <v>98</v>
       </c>
       <c r="C1635" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D1635">
         <v>0.0005143591941705</v>
@@ -23704,7 +23701,7 @@
         <v>98</v>
       </c>
       <c r="C1636" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1636">
         <v>0.0001714530647235</v>
@@ -23718,10 +23715,10 @@
         <v>98</v>
       </c>
       <c r="C1637" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D1637">
-        <v>0.0001714530647235</v>
+        <v>8.572653236176597E-05</v>
       </c>
     </row>
     <row r="1638" spans="1:4">
@@ -23956,7 +23953,7 @@
         <v>103</v>
       </c>
       <c r="C1654" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1654">
         <v>0</v>
@@ -23973,7 +23970,7 @@
         <v>132</v>
       </c>
       <c r="D1655">
-        <v>0</v>
+        <v>2.857551078725532E-05</v>
       </c>
     </row>
     <row r="1656" spans="1:4">
@@ -24169,7 +24166,7 @@
         <v>116</v>
       </c>
       <c r="D1669">
-        <v>0.997777835873572</v>
+        <v>0.0007842932210922</v>
       </c>
     </row>
     <row r="1670" spans="1:4">
@@ -24180,10 +24177,10 @@
         <v>98</v>
       </c>
       <c r="C1670" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D1670">
-        <v>0.0007842932210922</v>
+        <v>0.000496719040025</v>
       </c>
     </row>
     <row r="1671" spans="1:4">
@@ -24194,10 +24191,10 @@
         <v>98</v>
       </c>
       <c r="C1671" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D1671">
-        <v>0.000496719040025</v>
+        <v>0.0001045724294789</v>
       </c>
     </row>
     <row r="1672" spans="1:4">
@@ -24208,10 +24205,10 @@
         <v>98</v>
       </c>
       <c r="C1672" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D1672">
-        <v>0.0001045724294789</v>
+        <v>7.842932210922591E-05</v>
       </c>
     </row>
     <row r="1673" spans="1:4">
@@ -24222,7 +24219,7 @@
         <v>98</v>
       </c>
       <c r="C1673" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D1673">
         <v>7.842932210922591E-05</v>
@@ -24432,7 +24429,7 @@
         <v>103</v>
       </c>
       <c r="C1688" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1688">
         <v>7.842932210922591E-05</v>
@@ -24474,7 +24471,7 @@
         <v>104</v>
       </c>
       <c r="C1691" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1691">
         <v>0</v>
@@ -24488,7 +24485,7 @@
         <v>104</v>
       </c>
       <c r="C1692" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D1692">
         <v>0</v>
@@ -24502,7 +24499,7 @@
         <v>104</v>
       </c>
       <c r="C1693" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1693">
         <v>0</v>
@@ -24670,10 +24667,10 @@
         <v>98</v>
       </c>
       <c r="C1705" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1705">
-        <v>0.992947972542106</v>
+        <v>0.0040886754942045</v>
       </c>
     </row>
     <row r="1706" spans="1:4">
@@ -24684,10 +24681,10 @@
         <v>98</v>
       </c>
       <c r="C1706" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1706">
-        <v>0.0040886754942045</v>
+        <v>0.0006376833339585</v>
       </c>
     </row>
     <row r="1707" spans="1:4">
@@ -24698,10 +24695,10 @@
         <v>98</v>
       </c>
       <c r="C1707" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D1707">
-        <v>0.0006376833339585</v>
+        <v>0.0001875539217525</v>
       </c>
     </row>
     <row r="1708" spans="1:4">
@@ -24712,10 +24709,10 @@
         <v>98</v>
       </c>
       <c r="C1708" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D1708">
-        <v>0.0001875539217525</v>
+        <v>0.000150043137402</v>
       </c>
     </row>
     <row r="1709" spans="1:4">
@@ -24726,10 +24723,10 @@
         <v>98</v>
       </c>
       <c r="C1709" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D1709">
-        <v>0.000150043137402</v>
+        <v>7.502156870100153E-05</v>
       </c>
     </row>
     <row r="1710" spans="1:4">
@@ -24964,7 +24961,7 @@
         <v>103</v>
       </c>
       <c r="C1726" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1726">
         <v>0</v>
@@ -24981,7 +24978,7 @@
         <v>132</v>
       </c>
       <c r="D1727">
-        <v>0</v>
+        <v>0.0001125323530515</v>
       </c>
     </row>
     <row r="1728" spans="1:4">
@@ -25468,7 +25465,7 @@
         <v>103</v>
       </c>
       <c r="C1762" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1762">
         <v>0</v>
@@ -25499,7 +25496,7 @@
         <v>132</v>
       </c>
       <c r="D1764">
-        <v>0</v>
+        <v>6.341757300948092E-05</v>
       </c>
     </row>
     <row r="1765" spans="1:4">
@@ -25678,10 +25675,10 @@
         <v>98</v>
       </c>
       <c r="C1777" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1777">
-        <v>0.998036263664332</v>
+        <v>0.0001636446946389</v>
       </c>
     </row>
     <row r="1778" spans="1:4">
@@ -25692,10 +25689,10 @@
         <v>98</v>
       </c>
       <c r="C1778" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1778">
-        <v>0.0001636446946389</v>
+        <v>0.0001309157557111</v>
       </c>
     </row>
     <row r="1779" spans="1:4">
@@ -25706,10 +25703,10 @@
         <v>98</v>
       </c>
       <c r="C1779" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D1779">
-        <v>0.0001309157557111</v>
+        <v>6.545787785559992E-05</v>
       </c>
     </row>
     <row r="1780" spans="1:4">
@@ -25720,10 +25717,10 @@
         <v>98</v>
       </c>
       <c r="C1780" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D1780">
-        <v>6.545787785559992E-05</v>
+        <v>3.272893892779996E-05</v>
       </c>
     </row>
     <row r="1781" spans="1:4">
@@ -25734,7 +25731,7 @@
         <v>98</v>
       </c>
       <c r="C1781" t="s">
-        <v>141</v>
+        <v>113</v>
       </c>
       <c r="D1781">
         <v>3.272893892779996E-05</v>
@@ -25972,7 +25969,7 @@
         <v>103</v>
       </c>
       <c r="C1798" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1798">
         <v>0</v>
@@ -26003,7 +26000,7 @@
         <v>132</v>
       </c>
       <c r="D1800">
-        <v>0</v>
+        <v>3.272893892779996E-05</v>
       </c>
     </row>
     <row r="1801" spans="1:4">
@@ -26196,10 +26193,10 @@
         <v>98</v>
       </c>
       <c r="C1814" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D1814">
-        <v>0.1886895279617674</v>
+        <v>0.0144629831474805</v>
       </c>
     </row>
     <row r="1815" spans="1:4">
@@ -26210,10 +26207,10 @@
         <v>98</v>
       </c>
       <c r="C1815" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D1815">
-        <v>0.0144629831474805</v>
+        <v>0.0010480422570638</v>
       </c>
     </row>
     <row r="1816" spans="1:4">
@@ -26224,10 +26221,10 @@
         <v>98</v>
       </c>
       <c r="C1816" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D1816">
-        <v>0.0010480422570638</v>
+        <v>0.0002515301416953</v>
       </c>
     </row>
     <row r="1817" spans="1:4">
@@ -26238,10 +26235,10 @@
         <v>98</v>
       </c>
       <c r="C1817" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D1817">
-        <v>0.0002515301416953</v>
+        <v>0.0001257650708476</v>
       </c>
     </row>
     <row r="1818" spans="1:4">
@@ -26476,7 +26473,7 @@
         <v>103</v>
       </c>
       <c r="C1834" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1834">
         <v>0</v>
@@ -26493,7 +26490,7 @@
         <v>132</v>
       </c>
       <c r="D1835">
-        <v>0</v>
+        <v>4.19216902825522E-05</v>
       </c>
     </row>
     <row r="1836" spans="1:4">
@@ -26686,10 +26683,10 @@
         <v>98</v>
       </c>
       <c r="C1849" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D1849">
-        <v>0.9781920122328612</v>
+        <v>0.009902792441839199</v>
       </c>
     </row>
     <row r="1850" spans="1:4">
@@ -26700,10 +26697,10 @@
         <v>98</v>
       </c>
       <c r="C1850" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D1850">
-        <v>0.009902792441839199</v>
+        <v>0.0045509156442276</v>
       </c>
     </row>
     <row r="1851" spans="1:4">
@@ -26714,10 +26711,10 @@
         <v>98</v>
       </c>
       <c r="C1851" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1851">
-        <v>0.0045509156442276</v>
+        <v>0.0008373684785378</v>
       </c>
     </row>
     <row r="1852" spans="1:4">
@@ -26728,10 +26725,10 @@
         <v>98</v>
       </c>
       <c r="C1852" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D1852">
-        <v>0.0008373684785378</v>
+        <v>0.0007281465030764</v>
       </c>
     </row>
     <row r="1853" spans="1:4">
@@ -26742,10 +26739,10 @@
         <v>98</v>
       </c>
       <c r="C1853" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D1853">
-        <v>0.0007281465030764</v>
+        <v>0.0004732952269996</v>
       </c>
     </row>
     <row r="1854" spans="1:4">
@@ -26924,7 +26921,7 @@
         <v>103</v>
       </c>
       <c r="C1866" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1866">
         <v>0.0045509156442276</v>
@@ -27008,10 +27005,10 @@
         <v>104</v>
       </c>
       <c r="C1872" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1872">
-        <v>3.640732515382095E-05</v>
+        <v>7.281465030764189E-05</v>
       </c>
     </row>
     <row r="1873" spans="1:4">
@@ -27022,10 +27019,10 @@
         <v>104</v>
       </c>
       <c r="C1873" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1873">
-        <v>0</v>
+        <v>3.640732515382095E-05</v>
       </c>
     </row>
     <row r="1874" spans="1:4">
@@ -27190,10 +27187,10 @@
         <v>98</v>
       </c>
       <c r="C1885" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D1885">
-        <v>0.9914010903771996</v>
+        <v>0.0019945924382784</v>
       </c>
     </row>
     <row r="1886" spans="1:4">
@@ -27204,10 +27201,10 @@
         <v>98</v>
       </c>
       <c r="C1886" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D1886">
-        <v>0.0019945924382784</v>
+        <v>0.0015070253978103</v>
       </c>
     </row>
     <row r="1887" spans="1:4">
@@ -27218,10 +27215,10 @@
         <v>98</v>
       </c>
       <c r="C1887" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D1887">
-        <v>0.0015070253978103</v>
+        <v>0.0012410797393732</v>
       </c>
     </row>
     <row r="1888" spans="1:4">
@@ -27232,10 +27229,10 @@
         <v>98</v>
       </c>
       <c r="C1888" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="D1888">
-        <v>0.0012410797393732</v>
+        <v>0.0006648641460928</v>
       </c>
     </row>
     <row r="1889" spans="1:4">
@@ -27246,10 +27243,10 @@
         <v>98</v>
       </c>
       <c r="C1889" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1889">
-        <v>0.0006648641460928</v>
+        <v>0.0006205398696866</v>
       </c>
     </row>
     <row r="1890" spans="1:4">
@@ -27428,7 +27425,7 @@
         <v>103</v>
       </c>
       <c r="C1902" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1902">
         <v>0.0019945924382784</v>
@@ -27498,7 +27495,7 @@
         <v>104</v>
       </c>
       <c r="C1907" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D1907">
         <v>0</v>
@@ -27512,7 +27509,7 @@
         <v>104</v>
       </c>
       <c r="C1908" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D1908">
         <v>0</v>
@@ -27526,7 +27523,7 @@
         <v>104</v>
       </c>
       <c r="C1909" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1909">
         <v>0</v>
@@ -27708,7 +27705,7 @@
         <v>98</v>
       </c>
       <c r="C1922" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D1922">
         <v>0.1067254756768938</v>
@@ -27736,10 +27733,10 @@
         <v>98</v>
       </c>
       <c r="C1924" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D1924">
-        <v>0.0164514986639193</v>
+        <v>0.0025111876629857</v>
       </c>
     </row>
     <row r="1925" spans="1:4">
@@ -27750,10 +27747,10 @@
         <v>98</v>
       </c>
       <c r="C1925" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D1925">
-        <v>0.0025111876629857</v>
+        <v>0.001352177972376955</v>
       </c>
     </row>
     <row r="1926" spans="1:4">
@@ -27988,7 +27985,7 @@
         <v>103</v>
       </c>
       <c r="C1942" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1942">
         <v>0</v>
@@ -28198,10 +28195,10 @@
         <v>98</v>
       </c>
       <c r="C1957" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D1957">
-        <v>0.970664986952218</v>
+        <v>0.0072887609106451</v>
       </c>
     </row>
     <row r="1958" spans="1:4">
@@ -28212,10 +28209,10 @@
         <v>98</v>
       </c>
       <c r="C1958" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D1958">
-        <v>0.0072887609106451</v>
+        <v>0.0027295359788835</v>
       </c>
     </row>
     <row r="1959" spans="1:4">
@@ -28226,10 +28223,10 @@
         <v>98</v>
       </c>
       <c r="C1959" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D1959">
-        <v>0.0027295359788835</v>
+        <v>0.0015897297459431</v>
       </c>
     </row>
     <row r="1960" spans="1:4">
@@ -28240,10 +28237,10 @@
         <v>98</v>
       </c>
       <c r="C1960" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D1960">
-        <v>0.0015897297459431</v>
+        <v>0.0002399592069348</v>
       </c>
     </row>
     <row r="1961" spans="1:4">
@@ -28254,10 +28251,10 @@
         <v>98</v>
       </c>
       <c r="C1961" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D1961">
-        <v>0.0002399592069348</v>
+        <v>0.0002099643060679</v>
       </c>
     </row>
     <row r="1962" spans="1:4">
@@ -28492,7 +28489,7 @@
         <v>103</v>
       </c>
       <c r="C1978" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D1978">
         <v>0</v>
@@ -28520,7 +28517,7 @@
         <v>104</v>
       </c>
       <c r="C1980" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D1980">
         <v>0</v>
@@ -28534,7 +28531,7 @@
         <v>104</v>
       </c>
       <c r="C1981" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D1981">
         <v>0</v>
@@ -28702,10 +28699,10 @@
         <v>98</v>
       </c>
       <c r="C1993" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D1993">
-        <v>0.2790142122769882</v>
+        <v>0.2419715754460235</v>
       </c>
     </row>
     <row r="1994" spans="1:4">
@@ -28716,10 +28713,10 @@
         <v>98</v>
       </c>
       <c r="C1994" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="D1994">
-        <v>0.2419715754460235</v>
+        <v>0.1451164197157544</v>
       </c>
     </row>
     <row r="1995" spans="1:4">
@@ -28730,10 +28727,10 @@
         <v>98</v>
       </c>
       <c r="C1995" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D1995">
-        <v>0.1451164197157544</v>
+        <v>0.09129120048382221</v>
       </c>
     </row>
     <row r="1996" spans="1:4">
@@ -28747,7 +28744,7 @@
         <v>117</v>
       </c>
       <c r="D1996">
-        <v>0.09129120048382221</v>
+        <v>0.0726035681886906</v>
       </c>
     </row>
     <row r="1997" spans="1:4">
@@ -28758,10 +28755,10 @@
         <v>98</v>
       </c>
       <c r="C1997" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D1997">
-        <v>0.0726035681886906</v>
+        <v>0.0248261263985485</v>
       </c>
     </row>
     <row r="1998" spans="1:4">
@@ -28954,7 +28951,7 @@
         <v>103</v>
       </c>
       <c r="C2011" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2011">
         <v>0.0726035681886906</v>
@@ -29027,7 +29024,7 @@
         <v>132</v>
       </c>
       <c r="D2016">
-        <v>0</v>
+        <v>9.071666162685212E-05</v>
       </c>
     </row>
     <row r="2017" spans="1:4">
@@ -29206,7 +29203,7 @@
         <v>98</v>
       </c>
       <c r="C2029" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2029">
         <v>0.7395025019943433</v>
@@ -29500,7 +29497,7 @@
         <v>103</v>
       </c>
       <c r="C2050" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2050">
         <v>0</v>
@@ -29545,7 +29542,7 @@
         <v>132</v>
       </c>
       <c r="D2053">
-        <v>0</v>
+        <v>3.626078758430633E-05</v>
       </c>
     </row>
     <row r="2054" spans="1:4">
@@ -29710,10 +29707,10 @@
         <v>98</v>
       </c>
       <c r="C2065" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="D2065">
-        <v>0.8319360247646073</v>
+        <v>0.0706823165226364</v>
       </c>
     </row>
     <row r="2066" spans="1:4">
@@ -29724,10 +29721,10 @@
         <v>98</v>
       </c>
       <c r="C2066" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D2066">
-        <v>0.0706823165226364</v>
+        <v>0.0381787695085773</v>
       </c>
     </row>
     <row r="2067" spans="1:4">
@@ -29738,10 +29735,10 @@
         <v>98</v>
       </c>
       <c r="C2067" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D2067">
-        <v>0.0381787695085773</v>
+        <v>0.0102218496066038</v>
       </c>
     </row>
     <row r="2068" spans="1:4">
@@ -29752,10 +29749,10 @@
         <v>98</v>
       </c>
       <c r="C2068" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D2068">
-        <v>0.0102218496066038</v>
+        <v>0.0040306977944021</v>
       </c>
     </row>
     <row r="2069" spans="1:4">
@@ -29766,10 +29763,10 @@
         <v>98</v>
       </c>
       <c r="C2069" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D2069">
-        <v>0.0040306977944021</v>
+        <v>0.0020314716883786</v>
       </c>
     </row>
     <row r="2070" spans="1:4">
@@ -29948,7 +29945,7 @@
         <v>103</v>
       </c>
       <c r="C2082" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2082">
         <v>0.0102218496066038</v>
@@ -30049,7 +30046,7 @@
         <v>132</v>
       </c>
       <c r="D2089">
-        <v>0</v>
+        <v>3.224558235521733E-05</v>
       </c>
     </row>
     <row r="2090" spans="1:4">
@@ -30270,10 +30267,10 @@
         <v>98</v>
       </c>
       <c r="C2105" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D2105">
-        <v>0.0006408544726301</v>
+        <v>0.0005073431241655</v>
       </c>
     </row>
     <row r="2106" spans="1:4">
@@ -30508,7 +30505,7 @@
         <v>103</v>
       </c>
       <c r="C2122" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2122">
         <v>0.0001068090787716</v>
@@ -30718,10 +30715,10 @@
         <v>98</v>
       </c>
       <c r="C2137" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2137">
-        <v>0.2041477047127455</v>
+        <v>0.0130112091872575</v>
       </c>
     </row>
     <row r="2138" spans="1:4">
@@ -30732,10 +30729,10 @@
         <v>98</v>
       </c>
       <c r="C2138" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D2138">
-        <v>0.0130112091872575</v>
+        <v>0.0026266760331083</v>
       </c>
     </row>
     <row r="2139" spans="1:4">
@@ -30746,10 +30743,10 @@
         <v>98</v>
       </c>
       <c r="C2139" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D2139">
-        <v>0.0026266760331083</v>
+        <v>0.0007635686142756</v>
       </c>
     </row>
     <row r="2140" spans="1:4">
@@ -30760,10 +30757,10 @@
         <v>98</v>
       </c>
       <c r="C2140" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2140">
-        <v>0.0007635686142756</v>
+        <v>0.0001527137228551</v>
       </c>
     </row>
     <row r="2141" spans="1:4">
@@ -30774,10 +30771,10 @@
         <v>98</v>
       </c>
       <c r="C2141" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D2141">
-        <v>0.0001527137228551</v>
+        <v>0.0001221709782841</v>
       </c>
     </row>
     <row r="2142" spans="1:4">
@@ -30956,7 +30953,7 @@
         <v>103</v>
       </c>
       <c r="C2154" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2154">
         <v>0.0130112091872575</v>
@@ -31029,7 +31026,7 @@
         <v>132</v>
       </c>
       <c r="D2159">
-        <v>0</v>
+        <v>9.162823371308144E-05</v>
       </c>
     </row>
     <row r="2160" spans="1:4">
@@ -31222,10 +31219,10 @@
         <v>98</v>
       </c>
       <c r="C2173" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2173">
-        <v>0.9970693697421046</v>
+        <v>0.0005171700455109</v>
       </c>
     </row>
     <row r="2174" spans="1:4">
@@ -31236,10 +31233,10 @@
         <v>98</v>
       </c>
       <c r="C2174" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D2174">
-        <v>0.0005171700455109</v>
+        <v>0.0003103020273065</v>
       </c>
     </row>
     <row r="2175" spans="1:4">
@@ -31250,10 +31247,10 @@
         <v>98</v>
       </c>
       <c r="C2175" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D2175">
-        <v>0.0003103020273065</v>
+        <v>0.0001379120121362</v>
       </c>
     </row>
     <row r="2176" spans="1:4">
@@ -31264,10 +31261,10 @@
         <v>98</v>
       </c>
       <c r="C2176" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
       <c r="D2176">
-        <v>0.0001379120121362</v>
+        <v>0.0001034340091021</v>
       </c>
     </row>
     <row r="2177" spans="1:4">
@@ -31278,10 +31275,10 @@
         <v>98</v>
       </c>
       <c r="C2177" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D2177">
-        <v>0.0001034340091021</v>
+        <v>6.895600606812854E-05</v>
       </c>
     </row>
     <row r="2178" spans="1:4">
@@ -31516,7 +31513,7 @@
         <v>103</v>
       </c>
       <c r="C2194" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2194">
         <v>0</v>
@@ -31726,10 +31723,10 @@
         <v>98</v>
       </c>
       <c r="C2209" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2209">
-        <v>0.9300438090846208</v>
+        <v>0.06700484205672121</v>
       </c>
     </row>
     <row r="2210" spans="1:4">
@@ -31740,10 +31737,10 @@
         <v>98</v>
       </c>
       <c r="C2210" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D2210">
-        <v>0.06700484205672121</v>
+        <v>0.0016140189070786</v>
       </c>
     </row>
     <row r="2211" spans="1:4">
@@ -31754,10 +31751,10 @@
         <v>98</v>
       </c>
       <c r="C2211" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="D2211">
-        <v>0.0016140189070786</v>
+        <v>0.0001844593036661</v>
       </c>
     </row>
     <row r="2212" spans="1:4">
@@ -31768,10 +31765,10 @@
         <v>98</v>
       </c>
       <c r="C2212" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2212">
-        <v>0.0001844593036661</v>
+        <v>9.222965183310061E-05</v>
       </c>
     </row>
     <row r="2213" spans="1:4">
@@ -31782,10 +31779,10 @@
         <v>98</v>
       </c>
       <c r="C2213" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="D2213">
-        <v>9.222965183310061E-05</v>
+        <v>9.222965183306432E-05</v>
       </c>
     </row>
     <row r="2214" spans="1:4">
@@ -31964,7 +31961,7 @@
         <v>103</v>
       </c>
       <c r="C2226" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2226">
         <v>0.0016140189070786</v>
@@ -32034,7 +32031,7 @@
         <v>104</v>
       </c>
       <c r="C2231" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2231">
         <v>0</v>
@@ -32048,7 +32045,7 @@
         <v>104</v>
       </c>
       <c r="C2232" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D2232">
         <v>0</v>
@@ -32062,7 +32059,7 @@
         <v>104</v>
       </c>
       <c r="C2233" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2233">
         <v>0</v>
@@ -32244,7 +32241,7 @@
         <v>98</v>
       </c>
       <c r="C2246" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D2246">
         <v>0.0917941585535466</v>
@@ -32258,7 +32255,7 @@
         <v>98</v>
       </c>
       <c r="C2247" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D2247">
         <v>0.0090403337969401</v>
@@ -32272,10 +32269,10 @@
         <v>98</v>
       </c>
       <c r="C2248" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="D2248">
-        <v>0.0020862308762169</v>
+        <v>0.0015646731571627</v>
       </c>
     </row>
     <row r="2249" spans="1:4">
@@ -32286,10 +32283,10 @@
         <v>98</v>
       </c>
       <c r="C2249" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="D2249">
-        <v>0.0015646731571627</v>
+        <v>0.0008692628650904</v>
       </c>
     </row>
     <row r="2250" spans="1:4">
@@ -32524,7 +32521,7 @@
         <v>103</v>
       </c>
       <c r="C2266" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2266">
         <v>0</v>
@@ -32541,7 +32538,7 @@
         <v>132</v>
       </c>
       <c r="D2267">
-        <v>0</v>
+        <v>0.0003477051460361</v>
       </c>
     </row>
     <row r="2268" spans="1:4">
@@ -32734,10 +32731,10 @@
         <v>98</v>
       </c>
       <c r="C2281" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="D2281">
-        <v>0.9548197203826344</v>
+        <v>0.0347804758400784</v>
       </c>
     </row>
     <row r="2282" spans="1:4">
@@ -32748,10 +32745,10 @@
         <v>98</v>
       </c>
       <c r="C2282" t="s">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="D2282">
-        <v>0.0347804758400784</v>
+        <v>0.0070640176600441</v>
       </c>
     </row>
     <row r="2283" spans="1:4">
@@ -32762,10 +32759,10 @@
         <v>98</v>
       </c>
       <c r="C2283" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D2283">
-        <v>0.0070640176600441</v>
+        <v>0.001569781702232</v>
       </c>
     </row>
     <row r="2284" spans="1:4">
@@ -32776,10 +32773,10 @@
         <v>98</v>
       </c>
       <c r="C2284" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2284">
-        <v>0.001569781702232</v>
+        <v>0.0002452783909737</v>
       </c>
     </row>
     <row r="2285" spans="1:4">
@@ -32790,10 +32787,10 @@
         <v>98</v>
       </c>
       <c r="C2285" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="D2285">
-        <v>0.0002452783909737</v>
+        <v>0.0001471670345842</v>
       </c>
     </row>
     <row r="2286" spans="1:4">
@@ -33028,7 +33025,7 @@
         <v>103</v>
       </c>
       <c r="C2302" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2302">
         <v>0</v>
@@ -33045,7 +33042,7 @@
         <v>132</v>
       </c>
       <c r="D2303">
-        <v>0</v>
+        <v>4.905567819475104E-05</v>
       </c>
     </row>
     <row r="2304" spans="1:4">
@@ -33238,7 +33235,7 @@
         <v>98</v>
       </c>
       <c r="C2317" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2317">
         <v>0.9400789272259167</v>
@@ -33532,7 +33529,7 @@
         <v>103</v>
       </c>
       <c r="C2338" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2338">
         <v>0</v>
@@ -33756,10 +33753,10 @@
         <v>98</v>
       </c>
       <c r="C2354" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2354">
-        <v>0.2708068408896271</v>
+        <v>0.0010121194820024</v>
       </c>
     </row>
     <row r="2355" spans="1:4">
@@ -33770,10 +33767,10 @@
         <v>98</v>
       </c>
       <c r="C2355" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D2355">
-        <v>0.0010121194820024</v>
+        <v>0.0004498308808899</v>
       </c>
     </row>
     <row r="2356" spans="1:4">
@@ -33784,10 +33781,10 @@
         <v>98</v>
       </c>
       <c r="C2356" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2356">
-        <v>0.0004498308808899</v>
+        <v>0.0001124577202224</v>
       </c>
     </row>
     <row r="2357" spans="1:4">
@@ -33798,10 +33795,10 @@
         <v>98</v>
       </c>
       <c r="C2357" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D2357">
-        <v>0.0001124577202224</v>
+        <v>8.650593863346323E-06</v>
       </c>
     </row>
     <row r="2358" spans="1:4">
@@ -33980,7 +33977,7 @@
         <v>103</v>
       </c>
       <c r="C2370" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2370">
         <v>0.0010121194820024</v>
@@ -34064,7 +34061,7 @@
         <v>104</v>
       </c>
       <c r="C2376" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D2376">
         <v>0</v>
@@ -34078,7 +34075,7 @@
         <v>104</v>
       </c>
       <c r="C2377" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D2377">
         <v>0</v>
@@ -34246,7 +34243,7 @@
         <v>98</v>
       </c>
       <c r="C2389" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2389">
         <v>0.9506994199931764</v>
@@ -34260,7 +34257,7 @@
         <v>98</v>
       </c>
       <c r="C2390" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D2390">
         <v>0.0051420773017497</v>
@@ -34540,7 +34537,7 @@
         <v>103</v>
       </c>
       <c r="C2410" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2410">
         <v>0</v>
@@ -34781,7 +34778,7 @@
         <v>116</v>
       </c>
       <c r="D2427">
-        <v>0.0012590211110861</v>
+        <v>0.0011578497718023</v>
       </c>
     </row>
     <row r="2428" spans="1:4">
@@ -34792,10 +34789,10 @@
         <v>98</v>
       </c>
       <c r="C2428" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2428">
-        <v>0.0011578497718023</v>
+        <v>5.62062996020594E-05</v>
       </c>
     </row>
     <row r="2429" spans="1:4">
@@ -34806,10 +34803,10 @@
         <v>98</v>
       </c>
       <c r="C2429" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D2429">
-        <v>5.62062996020594E-05</v>
+        <v>2.248251984082376E-05</v>
       </c>
     </row>
     <row r="2430" spans="1:4">
@@ -35044,7 +35041,7 @@
         <v>103</v>
       </c>
       <c r="C2446" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2446">
         <v>0</v>
@@ -35072,7 +35069,7 @@
         <v>104</v>
       </c>
       <c r="C2448" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2448">
         <v>0</v>
@@ -35086,7 +35083,7 @@
         <v>104</v>
       </c>
       <c r="C2449" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2449">
         <v>0</v>
@@ -35310,7 +35307,7 @@
         <v>98</v>
       </c>
       <c r="C2465" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2465">
         <v>0.0077279752704791</v>
@@ -35548,7 +35545,7 @@
         <v>103</v>
       </c>
       <c r="C2482" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2482">
         <v>0</v>
@@ -35576,7 +35573,7 @@
         <v>104</v>
       </c>
       <c r="C2484" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2484">
         <v>0</v>
@@ -35590,7 +35587,7 @@
         <v>104</v>
       </c>
       <c r="C2485" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2485">
         <v>0</v>
@@ -35800,7 +35797,7 @@
         <v>98</v>
       </c>
       <c r="C2500" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2500">
         <v>0.0277453580901856</v>
@@ -36052,7 +36049,7 @@
         <v>103</v>
       </c>
       <c r="C2518" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2518">
         <v>0</v>
@@ -36262,10 +36259,10 @@
         <v>98</v>
       </c>
       <c r="C2533" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D2533">
-        <v>0.9181929806610049</v>
+        <v>0.0121252430164739</v>
       </c>
     </row>
     <row r="2534" spans="1:4">
@@ -36276,10 +36273,10 @@
         <v>98</v>
       </c>
       <c r="C2534" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D2534">
-        <v>0.0121252430164739</v>
+        <v>0.0106927248541901</v>
       </c>
     </row>
     <row r="2535" spans="1:4">
@@ -36290,10 +36287,10 @@
         <v>98</v>
       </c>
       <c r="C2535" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D2535">
-        <v>0.0106927248541901</v>
+        <v>0.0034789726798321</v>
       </c>
     </row>
     <row r="2536" spans="1:4">
@@ -36304,10 +36301,10 @@
         <v>98</v>
       </c>
       <c r="C2536" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D2536">
-        <v>0.0034789726798321</v>
+        <v>0.002097615880487</v>
       </c>
     </row>
     <row r="2537" spans="1:4">
@@ -36318,10 +36315,10 @@
         <v>98</v>
       </c>
       <c r="C2537" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D2537">
-        <v>0.002097615880487</v>
+        <v>0.001227872710529</v>
       </c>
     </row>
     <row r="2538" spans="1:4">
@@ -36556,7 +36553,7 @@
         <v>103</v>
       </c>
       <c r="C2554" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2554">
         <v>0</v>
@@ -36766,10 +36763,10 @@
         <v>98</v>
       </c>
       <c r="C2569" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2569">
-        <v>0.9919890985671224</v>
+        <v>0.0007432795143907</v>
       </c>
     </row>
     <row r="2570" spans="1:4">
@@ -36780,10 +36777,10 @@
         <v>98</v>
       </c>
       <c r="C2570" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D2570">
-        <v>0.0007432795143907</v>
+        <v>0.0002477598381302</v>
       </c>
     </row>
     <row r="2571" spans="1:4">
@@ -36794,10 +36791,10 @@
         <v>98</v>
       </c>
       <c r="C2571" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D2571">
-        <v>0.0002477598381302</v>
+        <v>0.0001651732254201</v>
       </c>
     </row>
     <row r="2572" spans="1:4">
@@ -36808,7 +36805,7 @@
         <v>98</v>
       </c>
       <c r="C2572" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D2572">
         <v>0.0001651732254201</v>
@@ -36822,10 +36819,10 @@
         <v>98</v>
       </c>
       <c r="C2573" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="D2573">
-        <v>0.0001651732254201</v>
+        <v>4.129330635503985E-05</v>
       </c>
     </row>
     <row r="2574" spans="1:4">
@@ -37032,7 +37029,7 @@
         <v>103</v>
       </c>
       <c r="C2588" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2588">
         <v>4.129330635503985E-05</v>
@@ -37077,7 +37074,7 @@
         <v>132</v>
       </c>
       <c r="D2591">
-        <v>0</v>
+        <v>0.0003303464508403</v>
       </c>
     </row>
     <row r="2592" spans="1:4">
@@ -37270,10 +37267,10 @@
         <v>98</v>
       </c>
       <c r="C2605" t="s">
-        <v>116</v>
+        <v>134</v>
       </c>
       <c r="D2605">
-        <v>0.0184604024367731</v>
+        <v>0.01006091932804127</v>
       </c>
     </row>
     <row r="2606" spans="1:4">
@@ -37284,10 +37281,10 @@
         <v>98</v>
       </c>
       <c r="C2606" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D2606">
-        <v>0.01006091932804127</v>
+        <v>0.0016152852132176</v>
       </c>
     </row>
     <row r="2607" spans="1:4">
@@ -37298,10 +37295,10 @@
         <v>98</v>
       </c>
       <c r="C2607" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="D2607">
-        <v>0.0016152852132176</v>
+        <v>0.0014306811888499</v>
       </c>
     </row>
     <row r="2608" spans="1:4">
@@ -37312,10 +37309,10 @@
         <v>98</v>
       </c>
       <c r="C2608" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D2608">
-        <v>0.0014306811888499</v>
+        <v>0.0009691711279305</v>
       </c>
     </row>
     <row r="2609" spans="1:4">
@@ -37326,10 +37323,10 @@
         <v>98</v>
       </c>
       <c r="C2609" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D2609">
-        <v>0.0009691711279305</v>
+        <v>0.0001846040243677</v>
       </c>
     </row>
     <row r="2610" spans="1:4">
@@ -37564,7 +37561,7 @@
         <v>103</v>
       </c>
       <c r="C2626" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2626">
         <v>0</v>
@@ -37581,7 +37578,7 @@
         <v>132</v>
       </c>
       <c r="D2627">
-        <v>0</v>
+        <v>0.0001384530182757</v>
       </c>
     </row>
     <row r="2628" spans="1:4">
@@ -37788,10 +37785,10 @@
         <v>98</v>
       </c>
       <c r="C2642" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D2642">
-        <v>0.2994019541778975</v>
+        <v>0.0021057951482479</v>
       </c>
     </row>
     <row r="2643" spans="1:4">
@@ -37802,10 +37799,10 @@
         <v>98</v>
       </c>
       <c r="C2643" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D2643">
-        <v>0.0021057951482479</v>
+        <v>0.0013055929919137</v>
       </c>
     </row>
     <row r="2644" spans="1:4">
@@ -37816,10 +37813,10 @@
         <v>98</v>
       </c>
       <c r="C2644" t="s">
-        <v>114</v>
+        <v>140</v>
       </c>
       <c r="D2644">
-        <v>0.0013055929919137</v>
+        <v>0.0006738544474393</v>
       </c>
     </row>
     <row r="2645" spans="1:4">
@@ -37830,10 +37827,10 @@
         <v>98</v>
       </c>
       <c r="C2645" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="D2645">
-        <v>0.0006738544474393</v>
+        <v>0.0005053908355795</v>
       </c>
     </row>
     <row r="2646" spans="1:4">
@@ -38026,7 +38023,7 @@
         <v>103</v>
       </c>
       <c r="C2659" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2659">
         <v>0.0021057951482479</v>
@@ -38096,10 +38093,10 @@
         <v>104</v>
       </c>
       <c r="C2664" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2664">
-        <v>8.423180592991914E-05</v>
+        <v>0.0001263477088948</v>
       </c>
     </row>
     <row r="2665" spans="1:4">
@@ -38110,10 +38107,10 @@
         <v>104</v>
       </c>
       <c r="C2665" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2665">
-        <v>0</v>
+        <v>8.423180592991914E-05</v>
       </c>
     </row>
     <row r="2666" spans="1:4">
@@ -38292,7 +38289,7 @@
         <v>98</v>
       </c>
       <c r="C2678" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2678">
         <v>0.1587607005418989</v>
@@ -38572,7 +38569,7 @@
         <v>103</v>
       </c>
       <c r="C2698" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2698">
         <v>0</v>
@@ -38617,7 +38614,7 @@
         <v>132</v>
       </c>
       <c r="D2701">
-        <v>0</v>
+        <v>3.926804366606456E-05</v>
       </c>
     </row>
     <row r="2702" spans="1:4">
@@ -38796,10 +38793,10 @@
         <v>98</v>
       </c>
       <c r="C2714" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2714">
-        <v>0.0398637137989778</v>
+        <v>0.0207410562180579</v>
       </c>
     </row>
     <row r="2715" spans="1:4">
@@ -38810,10 +38807,10 @@
         <v>98</v>
       </c>
       <c r="C2715" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="D2715">
-        <v>0.0207410562180579</v>
+        <v>0.0126490630323679</v>
       </c>
     </row>
     <row r="2716" spans="1:4">
@@ -38824,10 +38821,10 @@
         <v>98</v>
       </c>
       <c r="C2716" t="s">
-        <v>142</v>
+        <v>117</v>
       </c>
       <c r="D2716">
-        <v>0.0126490630323679</v>
+        <v>0.0040885860306643</v>
       </c>
     </row>
     <row r="2717" spans="1:4">
@@ -38838,10 +38835,10 @@
         <v>98</v>
       </c>
       <c r="C2717" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="D2717">
-        <v>0.0040885860306643</v>
+        <v>0.0010647359454855</v>
       </c>
     </row>
     <row r="2718" spans="1:4">
@@ -39034,7 +39031,7 @@
         <v>103</v>
       </c>
       <c r="C2731" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2731">
         <v>0.0040885860306643</v>
@@ -39093,7 +39090,7 @@
         <v>132</v>
       </c>
       <c r="D2735">
-        <v>0</v>
+        <v>0.0001277683134582</v>
       </c>
     </row>
     <row r="2736" spans="1:4">
@@ -39286,10 +39283,10 @@
         <v>98</v>
       </c>
       <c r="C2749" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D2749">
-        <v>0.981083336645074</v>
+        <v>0.0022652306958629</v>
       </c>
     </row>
     <row r="2750" spans="1:4">
@@ -39300,10 +39297,10 @@
         <v>98</v>
       </c>
       <c r="C2750" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D2750">
-        <v>0.0022652306958629</v>
+        <v>0.0014306720184397</v>
       </c>
     </row>
     <row r="2751" spans="1:4">
@@ -39314,10 +39311,10 @@
         <v>98</v>
       </c>
       <c r="C2751" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D2751">
-        <v>0.0014306720184397</v>
+        <v>0.0013909311290386</v>
       </c>
     </row>
     <row r="2752" spans="1:4">
@@ -39328,10 +39325,10 @@
         <v>98</v>
       </c>
       <c r="C2752" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="D2752">
-        <v>0.0013909311290386</v>
+        <v>0.0005563724516154</v>
       </c>
     </row>
     <row r="2753" spans="1:4">
@@ -39342,10 +39339,10 @@
         <v>98</v>
       </c>
       <c r="C2753" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
       <c r="D2753">
-        <v>0.0005563724516154</v>
+        <v>0.0003179271152088</v>
       </c>
     </row>
     <row r="2754" spans="1:4">
@@ -39580,7 +39577,7 @@
         <v>103</v>
       </c>
       <c r="C2770" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2770">
         <v>0</v>
@@ -39608,10 +39605,10 @@
         <v>104</v>
       </c>
       <c r="C2772" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2772">
-        <v>3.97408894011048E-05</v>
+        <v>0.0001589635576044</v>
       </c>
     </row>
     <row r="2773" spans="1:4">
@@ -39622,10 +39619,10 @@
         <v>104</v>
       </c>
       <c r="C2773" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2773">
-        <v>0</v>
+        <v>3.97408894011048E-05</v>
       </c>
     </row>
     <row r="2774" spans="1:4">
@@ -39790,10 +39787,10 @@
         <v>98</v>
       </c>
       <c r="C2785" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2785">
-        <v>0.9857605430499746</v>
+        <v>0.0047594897202824</v>
       </c>
     </row>
     <row r="2786" spans="1:4">
@@ -39804,10 +39801,10 @@
         <v>98</v>
       </c>
       <c r="C2786" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D2786">
-        <v>0.0047594897202824</v>
+        <v>0.0040572699254866</v>
       </c>
     </row>
     <row r="2787" spans="1:4">
@@ -39818,10 +39815,10 @@
         <v>98</v>
       </c>
       <c r="C2787" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D2787">
-        <v>0.0040572699254866</v>
+        <v>0.0010143174813716</v>
       </c>
     </row>
     <row r="2788" spans="1:4">
@@ -39832,10 +39829,10 @@
         <v>98</v>
       </c>
       <c r="C2788" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D2788">
-        <v>0.0010143174813716</v>
+        <v>0.0001560488432878873</v>
       </c>
     </row>
     <row r="2789" spans="1:4">
@@ -39846,10 +39843,10 @@
         <v>98</v>
       </c>
       <c r="C2789" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="D2789">
-        <v>0.0001560488432878873</v>
+        <v>0.0001170366324659</v>
       </c>
     </row>
     <row r="2790" spans="1:4">
@@ -40028,7 +40025,7 @@
         <v>103</v>
       </c>
       <c r="C2802" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2802">
         <v>0.0040572699254866</v>
@@ -40101,7 +40098,7 @@
         <v>132</v>
       </c>
       <c r="D2807">
-        <v>0</v>
+        <v>3.901221082198728E-05</v>
       </c>
     </row>
     <row r="2808" spans="1:4">
@@ -40294,10 +40291,10 @@
         <v>98</v>
       </c>
       <c r="C2821" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D2821">
-        <v>0.9748234940663962</v>
+        <v>0.0027039206849932</v>
       </c>
     </row>
     <row r="2822" spans="1:4">
@@ -40308,10 +40305,10 @@
         <v>98</v>
       </c>
       <c r="C2822" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D2822">
-        <v>0.0027039206849932</v>
+        <v>0.0025537028691602</v>
       </c>
     </row>
     <row r="2823" spans="1:4">
@@ -40322,10 +40319,10 @@
         <v>98</v>
       </c>
       <c r="C2823" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D2823">
-        <v>0.0025537028691602</v>
+        <v>0.0020429622953282</v>
       </c>
     </row>
     <row r="2824" spans="1:4">
@@ -40336,10 +40333,10 @@
         <v>98</v>
       </c>
       <c r="C2824" t="s">
-        <v>113</v>
+        <v>135</v>
       </c>
       <c r="D2824">
-        <v>0.0020429622953282</v>
+        <v>0.0013519603424966</v>
       </c>
     </row>
     <row r="2825" spans="1:4">
@@ -40350,10 +40347,10 @@
         <v>98</v>
       </c>
       <c r="C2825" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="D2825">
-        <v>0.0013519603424966</v>
+        <v>0.0009914375844975001</v>
       </c>
     </row>
     <row r="2826" spans="1:4">
@@ -40574,7 +40571,7 @@
         <v>103</v>
       </c>
       <c r="C2841" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2841">
         <v>0.0003905663211656</v>
@@ -40619,7 +40616,7 @@
         <v>132</v>
       </c>
       <c r="D2844">
-        <v>0</v>
+        <v>6.008712633318312E-05</v>
       </c>
     </row>
     <row r="2845" spans="1:4">
@@ -40798,7 +40795,7 @@
         <v>98</v>
       </c>
       <c r="C2857" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2857">
         <v>0.5259612893675288</v>
@@ -40840,7 +40837,7 @@
         <v>98</v>
       </c>
       <c r="C2860" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2860">
         <v>0.0330853780393027</v>
@@ -41092,7 +41089,7 @@
         <v>103</v>
       </c>
       <c r="C2878" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2878">
         <v>0</v>
@@ -41302,7 +41299,7 @@
         <v>98</v>
       </c>
       <c r="C2893" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2893">
         <v>0.004522208542475579</v>
@@ -41316,7 +41313,7 @@
         <v>98</v>
       </c>
       <c r="C2894" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2894">
         <v>0.0011601477412633</v>
@@ -41540,7 +41537,7 @@
         <v>103</v>
       </c>
       <c r="C2910" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2910">
         <v>0.0011601477412633</v>
@@ -41627,7 +41624,7 @@
         <v>132</v>
       </c>
       <c r="D2916">
-        <v>0</v>
+        <v>4.735296903115826E-05</v>
       </c>
     </row>
     <row r="2917" spans="1:4">
@@ -41848,7 +41845,7 @@
         <v>98</v>
       </c>
       <c r="C2932" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2932">
         <v>0.117551377897338</v>
@@ -41862,7 +41859,7 @@
         <v>98</v>
       </c>
       <c r="C2933" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D2933">
         <v>0.0066314241921861</v>
@@ -42100,7 +42097,7 @@
         <v>103</v>
       </c>
       <c r="C2950" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2950">
         <v>0</v>
@@ -42145,7 +42142,7 @@
         <v>132</v>
       </c>
       <c r="D2953">
-        <v>0</v>
+        <v>3.128030279333104E-05</v>
       </c>
     </row>
     <row r="2954" spans="1:4">
@@ -42313,7 +42310,7 @@
         <v>116</v>
       </c>
       <c r="D2965">
-        <v>0.993651889824431</v>
+        <v>0.001673351217827812</v>
       </c>
     </row>
     <row r="2966" spans="1:4">
@@ -42324,10 +42321,10 @@
         <v>98</v>
       </c>
       <c r="C2966" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2966">
-        <v>0.001673351217827812</v>
+        <v>0.0009296395654599</v>
       </c>
     </row>
     <row r="2967" spans="1:4">
@@ -42338,10 +42335,10 @@
         <v>98</v>
       </c>
       <c r="C2967" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D2967">
-        <v>0.0009296395654599</v>
+        <v>0.0002390501739754</v>
       </c>
     </row>
     <row r="2968" spans="1:4">
@@ -42352,10 +42349,10 @@
         <v>98</v>
       </c>
       <c r="C2968" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D2968">
-        <v>0.0002390501739754</v>
+        <v>0.0001328056522085</v>
       </c>
     </row>
     <row r="2969" spans="1:4">
@@ -42366,10 +42363,10 @@
         <v>98</v>
       </c>
       <c r="C2969" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="D2969">
-        <v>0.0001328056522085</v>
+        <v>5.31222608834232E-05</v>
       </c>
     </row>
     <row r="2970" spans="1:4">
@@ -42604,7 +42601,7 @@
         <v>103</v>
       </c>
       <c r="C2986" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D2986">
         <v>0</v>
@@ -42632,10 +42629,10 @@
         <v>104</v>
       </c>
       <c r="C2988" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D2988">
-        <v>2.65611304417116E-05</v>
+        <v>5.31222608834232E-05</v>
       </c>
     </row>
     <row r="2989" spans="1:4">
@@ -42646,10 +42643,10 @@
         <v>104</v>
       </c>
       <c r="C2989" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2989">
-        <v>0</v>
+        <v>2.65611304417116E-05</v>
       </c>
     </row>
     <row r="2990" spans="1:4">
@@ -42842,10 +42839,10 @@
         <v>98</v>
       </c>
       <c r="C3003" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="D3003">
-        <v>0.0416789956461089</v>
+        <v>0.0213890180496259</v>
       </c>
     </row>
     <row r="3004" spans="1:4">
@@ -42856,10 +42853,10 @@
         <v>98</v>
       </c>
       <c r="C3004" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="D3004">
-        <v>0.0213890180496259</v>
+        <v>0.0117512786912964</v>
       </c>
     </row>
     <row r="3005" spans="1:4">
@@ -42870,10 +42867,10 @@
         <v>98</v>
       </c>
       <c r="C3005" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D3005">
-        <v>0.0117512786912964</v>
+        <v>0.0061292640656042</v>
       </c>
     </row>
     <row r="3006" spans="1:4">
@@ -43094,7 +43091,7 @@
         <v>103</v>
       </c>
       <c r="C3021" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3021">
         <v>0.0008876865198461</v>
@@ -43318,10 +43315,10 @@
         <v>98</v>
       </c>
       <c r="C3037" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3037">
-        <v>0.9965954449401268</v>
+        <v>0.0004304609845816</v>
       </c>
     </row>
     <row r="3038" spans="1:4">
@@ -43332,10 +43329,10 @@
         <v>98</v>
       </c>
       <c r="C3038" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="D3038">
-        <v>0.0004304609845816</v>
+        <v>0.0001956640839007</v>
       </c>
     </row>
     <row r="3039" spans="1:4">
@@ -43346,10 +43343,10 @@
         <v>98</v>
       </c>
       <c r="C3039" t="s">
-        <v>139</v>
+        <v>113</v>
       </c>
       <c r="D3039">
-        <v>0.0001956640839007</v>
+        <v>0.0001565312671206</v>
       </c>
     </row>
     <row r="3040" spans="1:4">
@@ -43360,10 +43357,10 @@
         <v>98</v>
       </c>
       <c r="C3040" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D3040">
-        <v>0.0001565312671206</v>
+        <v>0.0001173984503404</v>
       </c>
     </row>
     <row r="3041" spans="1:4">
@@ -43374,7 +43371,7 @@
         <v>98</v>
       </c>
       <c r="C3041" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3041">
         <v>0.0001173984503404</v>
@@ -43612,7 +43609,7 @@
         <v>103</v>
       </c>
       <c r="C3058" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3058">
         <v>0</v>
@@ -43643,7 +43640,7 @@
         <v>132</v>
       </c>
       <c r="D3060">
-        <v>0</v>
+        <v>3.913281678015184E-05</v>
       </c>
     </row>
     <row r="3061" spans="1:4">
@@ -43836,10 +43833,10 @@
         <v>98</v>
       </c>
       <c r="C3074" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D3074">
-        <v>0.3437295885042455</v>
+        <v>0.001828870019595</v>
       </c>
     </row>
     <row r="3075" spans="1:4">
@@ -43850,10 +43847,10 @@
         <v>98</v>
       </c>
       <c r="C3075" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D3075">
-        <v>0.001828870019595</v>
+        <v>0.0007838014369693</v>
       </c>
     </row>
     <row r="3076" spans="1:4">
@@ -43864,10 +43861,10 @@
         <v>98</v>
       </c>
       <c r="C3076" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D3076">
-        <v>0.0007838014369693</v>
+        <v>9.797517962116264E-05</v>
       </c>
     </row>
     <row r="3077" spans="1:4">
@@ -43878,7 +43875,7 @@
         <v>98</v>
       </c>
       <c r="C3077" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D3077">
         <v>9.797517962116264E-05</v>
@@ -44116,7 +44113,7 @@
         <v>103</v>
       </c>
       <c r="C3094" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3094">
         <v>0</v>
@@ -44144,10 +44141,10 @@
         <v>104</v>
       </c>
       <c r="C3096" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3096">
-        <v>3.265839320705422E-05</v>
+        <v>6.531678641410843E-05</v>
       </c>
     </row>
     <row r="3097" spans="1:4">
@@ -44158,10 +44155,10 @@
         <v>104</v>
       </c>
       <c r="C3097" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D3097">
-        <v>0</v>
+        <v>3.265839320705422E-05</v>
       </c>
     </row>
     <row r="3098" spans="1:4">
@@ -44368,7 +44365,7 @@
         <v>98</v>
       </c>
       <c r="C3112" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3112">
         <v>0.0333777004197808</v>
@@ -44382,7 +44379,7 @@
         <v>98</v>
       </c>
       <c r="C3113" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3113">
         <v>0.010955257499744</v>
@@ -44620,7 +44617,7 @@
         <v>103</v>
       </c>
       <c r="C3130" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3130">
         <v>0</v>
@@ -44844,7 +44841,7 @@
         <v>98</v>
       </c>
       <c r="C3146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D3146">
         <v>0.0247742532993748</v>
@@ -44886,7 +44883,7 @@
         <v>98</v>
       </c>
       <c r="C3149" t="s">
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="D3149">
         <v>0.0042448097553446</v>
@@ -45124,7 +45121,7 @@
         <v>103</v>
       </c>
       <c r="C3166" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3166">
         <v>0</v>
@@ -45155,7 +45152,7 @@
         <v>132</v>
       </c>
       <c r="D3168">
-        <v>0</v>
+        <v>0.0001543567183761</v>
       </c>
     </row>
     <row r="3169" spans="1:4">
@@ -45334,10 +45331,10 @@
         <v>98</v>
       </c>
       <c r="C3181" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D3181">
-        <v>0.9953109299988836</v>
+        <v>0.0010327118454839</v>
       </c>
     </row>
     <row r="3182" spans="1:4">
@@ -45348,10 +45345,10 @@
         <v>98</v>
       </c>
       <c r="C3182" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D3182">
-        <v>0.0010327118454839</v>
+        <v>0.0004186669643853</v>
       </c>
     </row>
     <row r="3183" spans="1:4">
@@ -45362,10 +45359,10 @@
         <v>98</v>
       </c>
       <c r="C3183" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D3183">
-        <v>0.0004186669643853</v>
+        <v>0.0002232890476722</v>
       </c>
     </row>
     <row r="3184" spans="1:4">
@@ -45376,10 +45373,10 @@
         <v>98</v>
       </c>
       <c r="C3184" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3184">
-        <v>0.0002232890476722</v>
+        <v>0.0001674667857541</v>
       </c>
     </row>
     <row r="3185" spans="1:4">
@@ -45390,10 +45387,10 @@
         <v>98</v>
       </c>
       <c r="C3185" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="D3185">
-        <v>0.0001674667857541</v>
+        <v>0.0001116445238361</v>
       </c>
     </row>
     <row r="3186" spans="1:4">
@@ -45628,7 +45625,7 @@
         <v>103</v>
       </c>
       <c r="C3202" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3202">
         <v>0</v>
@@ -45659,7 +45656,7 @@
         <v>132</v>
       </c>
       <c r="D3204">
-        <v>0</v>
+        <v>2.791113095902646E-05</v>
       </c>
     </row>
     <row r="3205" spans="1:4">
@@ -45852,10 +45849,10 @@
         <v>98</v>
       </c>
       <c r="C3218" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="D3218">
-        <v>0.0047811392300717</v>
+        <v>0.0008518121616794</v>
       </c>
     </row>
     <row r="3219" spans="1:4">
@@ -45866,10 +45863,10 @@
         <v>98</v>
       </c>
       <c r="C3219" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D3219">
-        <v>0.0008518121616794</v>
+        <v>0.0004121671750061</v>
       </c>
     </row>
     <row r="3220" spans="1:4">
@@ -45880,10 +45877,10 @@
         <v>98</v>
       </c>
       <c r="C3220" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D3220">
-        <v>0.0004121671750061</v>
+        <v>0.0002198224933366</v>
       </c>
     </row>
     <row r="3221" spans="1:4">
@@ -45894,10 +45891,10 @@
         <v>98</v>
       </c>
       <c r="C3221" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3221">
-        <v>0.0002198224933366</v>
+        <v>5.495562333421282E-05</v>
       </c>
     </row>
     <row r="3222" spans="1:4">
@@ -46132,7 +46129,7 @@
         <v>103</v>
       </c>
       <c r="C3238" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3238">
         <v>0</v>
@@ -46146,7 +46143,7 @@
         <v>104</v>
       </c>
       <c r="C3239" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D3239">
         <v>0</v>
@@ -46160,7 +46157,7 @@
         <v>104</v>
       </c>
       <c r="C3240" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D3240">
         <v>0</v>
@@ -46174,7 +46171,7 @@
         <v>104</v>
       </c>
       <c r="C3241" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3241">
         <v>0</v>
@@ -46356,10 +46353,10 @@
         <v>98</v>
       </c>
       <c r="C3254" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="D3254">
-        <v>0.2726279034461819</v>
+        <v>0.0034006376195536</v>
       </c>
     </row>
     <row r="3255" spans="1:4">
@@ -46370,10 +46367,10 @@
         <v>98</v>
       </c>
       <c r="C3255" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="D3255">
-        <v>0.0034006376195536</v>
+        <v>0.0006679823895551</v>
       </c>
     </row>
     <row r="3256" spans="1:4">
@@ -46384,10 +46381,10 @@
         <v>98</v>
       </c>
       <c r="C3256" t="s">
-        <v>139</v>
+        <v>114</v>
       </c>
       <c r="D3256">
-        <v>0.0006679823895551</v>
+        <v>0.0005768938818885</v>
       </c>
     </row>
     <row r="3257" spans="1:4">
@@ -46398,10 +46395,10 @@
         <v>98</v>
       </c>
       <c r="C3257" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="D3257">
-        <v>0.0005768938818885</v>
+        <v>0.0002732655229998517</v>
       </c>
     </row>
     <row r="3258" spans="1:4">
@@ -46636,7 +46633,7 @@
         <v>103</v>
       </c>
       <c r="C3274" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D3274">
         <v>0</v>
@@ -46667,7 +46664,7 @@
         <v>132</v>
       </c>
       <c r="D3276">
-        <v>0</v>
+        <v>3.036283588887202E-05</v>
       </c>
     </row>
     <row r="3277" spans="1:4">
